--- a/AssessmentList.xlsx
+++ b/AssessmentList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft.sharepoint.com/teams/DWPFERamp-up-MIP-SynapseHealthAssessmentDevelopment2/Shared Documents/MIP-Synapse Health Assessment Development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/nicksalc_microsoft_com1/Documents/Github/SynapseHealthAssessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="8_{333580E6-5367-4011-81E7-E0FF622FDD49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BA0DBB58-295A-4D63-8035-F4CA835C54ED}"/>
+  <xr:revisionPtr revIDLastSave="251" documentId="8_{333580E6-5367-4011-81E7-E0FF622FDD49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{60AA7543-19A2-47F4-8703-F6035C84ECAA}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="1" activeTab="1" xr2:uid="{5C4F97EF-D37C-4010-B2B3-1260A2189393}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5C4F97EF-D37C-4010-B2B3-1260A2189393}"/>
   </bookViews>
   <sheets>
     <sheet name="Informational" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="SLO Analysis" sheetId="2" r:id="rId4"/>
     <sheet name="Security Assessment" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="160">
   <si>
     <t>Item</t>
   </si>
@@ -509,13 +509,22 @@
   </si>
   <si>
     <t>Row-level security usage</t>
+  </si>
+  <si>
+    <t>Long-running statistics updates</t>
+  </si>
+  <si>
+    <t>Possibly lower the frequency or sample size for long-running statistics jobs. If running during loads it can add significant time, so need to check if it's necessary</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,16 +627,16 @@
   <dxfs count="7">
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -656,16 +665,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -722,12 +731,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{798E3207-8B2C-47A9-883E-D74382C09352}" name="Table1" displayName="Table1" ref="A1:F62" totalsRowShown="0">
-  <autoFilter ref="A1:F62" xr:uid="{5703D66D-1822-4365-9273-C51F7109314D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F62">
-    <sortCondition ref="A2:A62"/>
-    <sortCondition ref="B2:B62"/>
-    <sortCondition ref="C2:C62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{798E3207-8B2C-47A9-883E-D74382C09352}" name="Table1" displayName="Table1" ref="A1:F63" totalsRowShown="0">
+  <autoFilter ref="A1:F63" xr:uid="{5703D66D-1822-4365-9273-C51F7109314D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F63">
+    <sortCondition ref="A2:A63"/>
+    <sortCondition ref="B2:B63"/>
+    <sortCondition ref="C2:C63"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="12" xr3:uid="{AFD01177-99B2-4497-9E50-5BC575779994}" name="Category"/>
@@ -735,14 +744,14 @@
     <tableColumn id="2" xr3:uid="{2726D609-060B-4E14-9FA3-8D516E62ED14}" name="Test"/>
     <tableColumn id="3" xr3:uid="{59D8DB47-2BC5-4715-8454-8DD879E7250B}" name="Summary" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{7634C1FE-6EAD-4A81-9708-EF2CC045EB17}" name="Collected by "/>
-    <tableColumn id="5" xr3:uid="{50BD6E41-76DB-4D3E-B5CA-D6A176F9A73E}" name="Notes"/>
+    <tableColumn id="5" xr3:uid="{50BD6E41-76DB-4D3E-B5CA-D6A176F9A73E}" name="Status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9160E513-D54E-42D7-B287-CFF41F71D002}" name="Table36" displayName="Table36" ref="A1:E7" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9160E513-D54E-42D7-B287-CFF41F71D002}" name="Table36" displayName="Table36" ref="A1:E7" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:E7" xr:uid="{0A3FC002-EB2C-4E84-A86E-AF4DB879ABD0}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{1AEDD550-EDA3-4611-91A3-39A5A16E67AB}" name="Category"/>
@@ -756,7 +765,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C4A81218-99BF-41A8-AF30-B6AF720D067E}" name="Table3" displayName="Table3" ref="A1:E7" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C4A81218-99BF-41A8-AF30-B6AF720D067E}" name="Table3" displayName="Table3" ref="A1:E7" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:E7" xr:uid="{BA3E3F10-6DF8-4661-975B-9BAB423767DA}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C29D9085-2BC1-44C3-933A-42767883421C}" name="Category"/>
@@ -1083,18 +1092,18 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="45.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1119,7 +1128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1130,7 +1139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1141,7 +1150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1152,7 +1161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1163,7 +1172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1174,22 +1183,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1205,23 +1214,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FB388A-8907-42F8-9F51-A2DBE026E81A}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.59765625" customWidth="1"/>
+    <col min="2" max="2" width="25.1328125" customWidth="1"/>
     <col min="3" max="3" width="49" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92.85546875" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="92.86328125" customWidth="1"/>
+    <col min="5" max="5" width="31.265625" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1238,10 +1247,10 @@
         <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1253,7 +1262,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1265,7 +1274,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="60">
+    <row r="4" spans="1:6" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1282,7 +1291,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1294,7 +1303,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1309,7 +1318,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1324,7 +1333,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30">
+    <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1341,7 +1350,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1356,7 +1365,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1371,7 +1380,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1386,7 +1395,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1401,7 +1410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1416,7 +1425,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1428,7 +1437,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1440,7 +1449,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1452,7 +1461,7 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1464,7 +1473,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1472,207 +1481,212 @@
         <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:5">
+        <v>157</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>28</v>
       </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
       <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>53</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="30">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="30">
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="30">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:5">
+        <v>85</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -1680,41 +1694,41 @@
         <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="E33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>79</v>
       </c>
@@ -1722,11 +1736,11 @@
         <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -1734,14 +1748,11 @@
         <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -1749,11 +1760,14 @@
         <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="E38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -1761,47 +1775,47 @@
         <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>79</v>
       </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="E42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -1809,11 +1823,11 @@
         <v>103</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>102</v>
       </c>
@@ -1821,37 +1835,34 @@
         <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>102</v>
       </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
       <c r="C45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -1859,11 +1870,14 @@
         <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="E47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -1871,14 +1885,11 @@
         <v>110</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -1886,11 +1897,14 @@
         <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="E49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -1898,11 +1912,11 @@
         <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -1910,14 +1924,11 @@
         <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -1925,14 +1936,14 @@
         <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -1940,13 +1951,14 @@
         <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>118</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -1954,13 +1966,13 @@
         <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -1968,11 +1980,13 @@
         <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>123</v>
-      </c>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:5">
+        <v>121</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -1980,76 +1994,88 @@
         <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>124</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>123</v>
+      </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
-      </c>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:5">
+        <v>124</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>128</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>126</v>
+      </c>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:5">
+        <v>128</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>109</v>
       </c>
+      <c r="B60" t="s">
+        <v>103</v>
+      </c>
       <c r="C60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D60" s="1"/>
-      <c r="E60" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>109</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" t="s">
+        <v>132</v>
+      </c>
       <c r="D62" s="1"/>
+      <c r="E62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D63" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2069,15 +2095,15 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -2094,7 +2120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>133</v>
       </c>
@@ -2102,7 +2128,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -2126,15 +2152,15 @@
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -2151,7 +2177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -2159,7 +2185,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -2167,7 +2193,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -2175,7 +2201,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -2183,7 +2209,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -2207,16 +2233,16 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2233,7 +2259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -2241,7 +2267,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -2249,7 +2275,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -2257,7 +2283,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -2265,7 +2291,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -2273,7 +2299,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>143</v>
       </c>
@@ -2281,7 +2307,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>143</v>
       </c>
@@ -2289,7 +2315,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>143</v>
       </c>
@@ -2297,7 +2323,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -2305,7 +2331,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>143</v>
       </c>
@@ -2316,7 +2342,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -2324,7 +2350,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -2341,21 +2367,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046C9DBCDDFD8DB418F41B2241B54161A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7033472e0bb57c6599fdcbd9f7677219">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="58e001b3-03d5-4b34-abf9-59e2cfe2e3d0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6444ba373961e4493ffb4522bc49aff9" ns2:_="">
     <xsd:import namespace="58e001b3-03d5-4b34-abf9-59e2cfe2e3d0"/>
@@ -2501,16 +2512,54 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9875775B-611E-456C-9690-799BC8577167}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB5C63C8-7919-4159-800E-C7653F629984}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="58e001b3-03d5-4b34-abf9-59e2cfe2e3d0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024609E9-C262-4587-9050-8BFE45D722CF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024609E9-C262-4587-9050-8BFE45D722CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB5C63C8-7919-4159-800E-C7653F629984}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9875775B-611E-456C-9690-799BC8577167}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>

--- a/AssessmentList.xlsx
+++ b/AssessmentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/nicksalc_microsoft_com1/Documents/Github/SynapseHealthAssessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="8_{333580E6-5367-4011-81E7-E0FF622FDD49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{60AA7543-19A2-47F4-8703-F6035C84ECAA}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="8_{333580E6-5367-4011-81E7-E0FF622FDD49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F107D62D-2953-4B5F-8C51-96025CDCFE33}"/>
   <bookViews>
     <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5C4F97EF-D37C-4010-B2B3-1260A2189393}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="173">
   <si>
     <t>Item</t>
   </si>
@@ -518,13 +518,52 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Link to query</t>
+  </si>
+  <si>
+    <t>https://github.com/microsoft/SynapseHealthAssessment/blob/main/SQL_Scripts/CciHealthByTable.sql</t>
+  </si>
+  <si>
+    <t>DBCC PDW_SHOWSPACEUSED</t>
+  </si>
+  <si>
+    <t>database size per distribution</t>
+  </si>
+  <si>
+    <t>SELECT * FROM sys.databases where name != 'master'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run against master, if &gt;2 then there are multiple user databases: SELECT COUNT(*) FROM sys.databases </t>
+  </si>
+  <si>
+    <t>Pre-Req view</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/microsoft/Azure_Synapse_Toolbox/master/SQL_Queries/Table_Information/CreateTableInfoView.sql</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/microsoft/Azure_Synapse_Toolbox/master/SQL_Queries/Indexes/CreateRowgroupHealthView.sql</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/microsoft/Azure_Synapse_Toolbox/master/SQL_Queries/Table_Information/TableSkew.sql</t>
+  </si>
+  <si>
+    <t>Fix link to point to healthassessment github</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Failed autostats jobs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,6 +589,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -606,10 +653,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -620,8 +668,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -731,20 +781,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{798E3207-8B2C-47A9-883E-D74382C09352}" name="Table1" displayName="Table1" ref="A1:F63" totalsRowShown="0">
-  <autoFilter ref="A1:F63" xr:uid="{5703D66D-1822-4365-9273-C51F7109314D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F63">
-    <sortCondition ref="A2:A63"/>
-    <sortCondition ref="B2:B63"/>
-    <sortCondition ref="C2:C63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{798E3207-8B2C-47A9-883E-D74382C09352}" name="Table1" displayName="Table1" ref="A1:I65" totalsRowShown="0">
+  <autoFilter ref="A1:I65" xr:uid="{5703D66D-1822-4365-9273-C51F7109314D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G65">
+    <sortCondition ref="A1:A65"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="9">
     <tableColumn id="12" xr3:uid="{AFD01177-99B2-4497-9E50-5BC575779994}" name="Category"/>
     <tableColumn id="1" xr3:uid="{8BACA63F-81DA-4522-B17C-D39F6BAFD188}" name="Sub-Category"/>
     <tableColumn id="2" xr3:uid="{2726D609-060B-4E14-9FA3-8D516E62ED14}" name="Test"/>
     <tableColumn id="3" xr3:uid="{59D8DB47-2BC5-4715-8454-8DD879E7250B}" name="Summary" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{7634C1FE-6EAD-4A81-9708-EF2CC045EB17}" name="Collected by "/>
     <tableColumn id="5" xr3:uid="{50BD6E41-76DB-4D3E-B5CA-D6A176F9A73E}" name="Status"/>
+    <tableColumn id="6" xr3:uid="{06E5D75F-7411-4EFA-902F-E7339CDED8A3}" name="Link to query"/>
+    <tableColumn id="7" xr3:uid="{974B7D4C-6CB3-4F7C-A8C9-DC06624CB7EE}" name="Pre-Req view"/>
+    <tableColumn id="8" xr3:uid="{DBEF767F-D1EE-4551-8F4C-6EE91253C096}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1092,7 +1143,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1214,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FB388A-8907-42F8-9F51-A2DBE026E81A}">
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1225,12 +1276,14 @@
     <col min="1" max="1" width="25.59765625" customWidth="1"/>
     <col min="2" max="2" width="25.1328125" customWidth="1"/>
     <col min="3" max="3" width="49" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="92.86328125" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" customWidth="1"/>
     <col min="5" max="5" width="31.265625" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="88.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="118.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1249,8 +1302,17 @@
       <c r="F1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1261,8 +1323,11 @@
         <v>30</v>
       </c>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H2" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1274,7 +1339,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1291,7 +1356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1303,7 +1368,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1318,7 +1383,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1332,8 +1397,11 @@
       <c r="E7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="G7" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1350,7 +1418,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1364,8 +1432,17 @@
       <c r="E9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1380,7 +1457,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1395,7 +1472,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1410,7 +1487,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -1425,7 +1502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1433,11 +1510,14 @@
         <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1445,11 +1525,11 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1457,11 +1537,14 @@
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1469,11 +1552,11 @@
         <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1481,16 +1564,11 @@
         <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1498,207 +1576,224 @@
         <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>28</v>
       </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
       <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+      <c r="G28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -1706,53 +1801,59 @@
         <v>88</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -1760,14 +1861,11 @@
         <v>92</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -1775,11 +1873,11 @@
         <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -1787,59 +1885,62 @@
         <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>79</v>
       </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>79</v>
       </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
       <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" t="s">
+      <c r="D44" s="1"/>
+      <c r="E44" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" t="s">
-        <v>104</v>
-      </c>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" t="s">
-        <v>105</v>
-      </c>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>102</v>
       </c>
@@ -1847,47 +1948,44 @@
         <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>102</v>
       </c>
+      <c r="B46" t="s">
+        <v>103</v>
+      </c>
       <c r="C46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" t="s">
         <v>107</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>109</v>
-      </c>
-      <c r="B47" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>109</v>
-      </c>
-      <c r="B48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
@@ -1897,11 +1995,11 @@
         <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
@@ -1912,7 +2010,7 @@
         <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D50" s="1"/>
     </row>
@@ -1924,9 +2022,12 @@
         <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D51" s="1"/>
+      <c r="E51" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
@@ -1936,12 +2037,9 @@
         <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D52" s="1"/>
-      <c r="E52" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
@@ -1951,12 +2049,9 @@
         <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D53" s="1"/>
-      <c r="E53" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
@@ -1966,10 +2061,11 @@
         <v>110</v>
       </c>
       <c r="C54" t="s">
-        <v>119</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
@@ -1980,10 +2076,11 @@
         <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
@@ -1994,9 +2091,11 @@
         <v>110</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
-      </c>
-      <c r="D56" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
@@ -2006,10 +2105,10 @@
         <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
@@ -2017,10 +2116,10 @@
         <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C58" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D58" s="1"/>
     </row>
@@ -2029,13 +2128,13 @@
         <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
@@ -2043,10 +2142,10 @@
         <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D60" s="1"/>
     </row>
@@ -2054,35 +2153,67 @@
       <c r="A61" t="s">
         <v>109</v>
       </c>
+      <c r="B61" t="s">
+        <v>127</v>
+      </c>
       <c r="C61" t="s">
-        <v>131</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" t="s">
-        <v>100</v>
+        <v>128</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>109</v>
       </c>
+      <c r="B62" t="s">
+        <v>103</v>
+      </c>
       <c r="C62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" t="s">
         <v>132</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" t="s">
+      <c r="D64" s="1"/>
+      <c r="E64" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="D63" s="1"/>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D65" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H9" r:id="rId1" xr:uid="{8B2E3FCF-FBAA-4D89-A2BD-D0D0F585DA43}"/>
+    <hyperlink ref="G7" r:id="rId2" xr:uid="{114B2659-B33C-4854-87B4-B4D768A329CE}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{9509FFA4-0C2B-4706-B902-30D3FD56DF94}"/>
+    <hyperlink ref="G9" r:id="rId4" xr:uid="{88FEA10A-7BB4-4841-90E3-AAA6EDA79E90}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2367,6 +2498,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046C9DBCDDFD8DB418F41B2241B54161A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7033472e0bb57c6599fdcbd9f7677219">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="58e001b3-03d5-4b34-abf9-59e2cfe2e3d0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6444ba373961e4493ffb4522bc49aff9" ns2:_="">
     <xsd:import namespace="58e001b3-03d5-4b34-abf9-59e2cfe2e3d0"/>
@@ -2512,22 +2658,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9875775B-611E-456C-9690-799BC8577167}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024609E9-C262-4587-9050-8BFE45D722CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB5C63C8-7919-4159-800E-C7653F629984}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2545,23 +2693,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024609E9-C262-4587-9050-8BFE45D722CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9875775B-611E-456C-9690-799BC8577167}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>

--- a/AssessmentList.xlsx
+++ b/AssessmentList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/nicksalc_microsoft_com1/Documents/Github/SynapseHealthAssessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="8_{333580E6-5367-4011-81E7-E0FF622FDD49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F107D62D-2953-4B5F-8C51-96025CDCFE33}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="8_{333580E6-5367-4011-81E7-E0FF622FDD49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1506C6E9-8EFF-46A6-AF68-4BB530C18B2A}"/>
   <bookViews>
     <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5C4F97EF-D37C-4010-B2B3-1260A2189393}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="175">
   <si>
     <t>Item</t>
   </si>
@@ -557,6 +557,12 @@
   </si>
   <si>
     <t>Failed autostats jobs</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Owner</t>
   </si>
 </sst>
 </file>
@@ -781,12 +787,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{798E3207-8B2C-47A9-883E-D74382C09352}" name="Table1" displayName="Table1" ref="A1:I65" totalsRowShown="0">
-  <autoFilter ref="A1:I65" xr:uid="{5703D66D-1822-4365-9273-C51F7109314D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G65">
-    <sortCondition ref="A1:A65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{798E3207-8B2C-47A9-883E-D74382C09352}" name="Table1" displayName="Table1" ref="A1:K65" totalsRowShown="0">
+  <autoFilter ref="A1:K65" xr:uid="{5703D66D-1822-4365-9273-C51F7109314D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:I65">
+    <sortCondition ref="C1:C65"/>
   </sortState>
-  <tableColumns count="9">
+  <tableColumns count="11">
+    <tableColumn id="9" xr3:uid="{D91F4007-4975-4614-94E0-D458D5B1D610}" name="Priority"/>
+    <tableColumn id="10" xr3:uid="{577D702B-537C-4071-AEE1-257C3E51036A}" name="Owner"/>
     <tableColumn id="12" xr3:uid="{AFD01177-99B2-4497-9E50-5BC575779994}" name="Category"/>
     <tableColumn id="1" xr3:uid="{8BACA63F-81DA-4522-B17C-D39F6BAFD188}" name="Sub-Category"/>
     <tableColumn id="2" xr3:uid="{2726D609-060B-4E14-9FA3-8D516E62ED14}" name="Test"/>
@@ -1265,950 +1273,935 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FB388A-8907-42F8-9F51-A2DBE026E81A}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.59765625" customWidth="1"/>
-    <col min="2" max="2" width="25.1328125" customWidth="1"/>
-    <col min="3" max="3" width="49" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1328125" customWidth="1"/>
-    <col min="5" max="5" width="31.265625" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="88.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="118.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.9296875" customWidth="1"/>
+    <col min="2" max="3" width="25.59765625" customWidth="1"/>
+    <col min="4" max="4" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.9296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61.796875" customWidth="1"/>
+    <col min="8" max="8" width="31.265625" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="88.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="118.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>159</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>160</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>166</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="57" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>42</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>48</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>48</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
         <v>48</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+    </row>
+    <row r="19" spans="3:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>48</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
         <v>28</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    </row>
+    <row r="21" spans="3:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="22" spans="3:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
         <v>28</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    </row>
+    <row r="24" spans="3:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
         <v>59</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E24" t="s">
+      <c r="G24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    <row r="25" spans="3:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
         <v>59</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
         <v>59</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>67</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
         <v>59</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>69</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>34</v>
       </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
         <v>59</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>71</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>34</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>48</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>74</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+    <row r="30" spans="3:9" ht="57" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="31" spans="3:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
         <v>79</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>80</v>
       </c>
-      <c r="C32" t="s">
+      <c r="E32" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+    <row r="33" spans="3:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
         <v>79</v>
       </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>84</v>
       </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E33" t="s">
+      <c r="G33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
         <v>79</v>
       </c>
-      <c r="B34" t="s">
+      <c r="D34" t="s">
         <v>88</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>163</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
         <v>79</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>88</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>89</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
         <v>79</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>88</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
         <v>79</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>67</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C38" t="s">
         <v>79</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>92</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C39" t="s">
         <v>79</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>92</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C40" t="s">
         <v>79</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>92</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
         <v>79</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>92</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C42" t="s">
         <v>79</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" t="s">
         <v>92</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C43" t="s">
         <v>79</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C44" t="s">
         <v>79</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C45" t="s">
         <v>102</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>103</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C46" t="s">
         <v>102</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>103</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.45">
+      <c r="C47" t="s">
         <v>102</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>103</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
+    </row>
+    <row r="48" spans="3:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C48" t="s">
         <v>102</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C49" t="s">
         <v>109</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>110</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>111</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C50" t="s">
         <v>109</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>110</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>112</v>
       </c>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C51" t="s">
         <v>109</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>110</v>
       </c>
-      <c r="C51" t="s">
+      <c r="E51" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C52" t="s">
         <v>109</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
         <v>110</v>
       </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
         <v>115</v>
       </c>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C53" t="s">
         <v>109</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
         <v>110</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>116</v>
       </c>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C54" t="s">
         <v>109</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>110</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>117</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C55" t="s">
         <v>109</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
         <v>110</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>118</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" t="s">
+      <c r="G55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C56" t="s">
         <v>109</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
         <v>110</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>119</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+    <row r="57" spans="3:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C57" t="s">
         <v>109</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
         <v>110</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
         <v>121</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
+    <row r="58" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C58" t="s">
         <v>109</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" t="s">
         <v>110</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
         <v>123</v>
       </c>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C59" t="s">
         <v>109</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
         <v>110</v>
       </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>124</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C60" t="s">
         <v>109</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D60" t="s">
         <v>71</v>
       </c>
-      <c r="C60" t="s">
+      <c r="E60" t="s">
         <v>126</v>
       </c>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
+    </row>
+    <row r="61" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C61" t="s">
         <v>109</v>
       </c>
-      <c r="B61" t="s">
+      <c r="D61" t="s">
         <v>127</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E61" t="s">
         <v>128</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C62" t="s">
         <v>109</v>
       </c>
-      <c r="B62" t="s">
+      <c r="D62" t="s">
         <v>103</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
         <v>130</v>
       </c>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
+    </row>
+    <row r="63" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C63" t="s">
         <v>109</v>
       </c>
-      <c r="C63" t="s">
+      <c r="E63" t="s">
         <v>131</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" t="s">
+      <c r="G63" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C64" t="s">
         <v>109</v>
       </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
         <v>132</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" t="s">
+      <c r="G64" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D65" s="1"/>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E65" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H9" r:id="rId1" xr:uid="{8B2E3FCF-FBAA-4D89-A2BD-D0D0F585DA43}"/>
-    <hyperlink ref="G7" r:id="rId2" xr:uid="{114B2659-B33C-4854-87B4-B4D768A329CE}"/>
-    <hyperlink ref="H2" r:id="rId3" xr:uid="{9509FFA4-0C2B-4706-B902-30D3FD56DF94}"/>
-    <hyperlink ref="G9" r:id="rId4" xr:uid="{88FEA10A-7BB4-4841-90E3-AAA6EDA79E90}"/>
+    <hyperlink ref="J9" r:id="rId1" xr:uid="{8B2E3FCF-FBAA-4D89-A2BD-D0D0F585DA43}"/>
+    <hyperlink ref="I7" r:id="rId2" xr:uid="{114B2659-B33C-4854-87B4-B4D768A329CE}"/>
+    <hyperlink ref="J2" r:id="rId3" xr:uid="{9509FFA4-0C2B-4706-B902-30D3FD56DF94}"/>
+    <hyperlink ref="I9" r:id="rId4" xr:uid="{88FEA10A-7BB4-4841-90E3-AAA6EDA79E90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
@@ -2498,21 +2491,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046C9DBCDDFD8DB418F41B2241B54161A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7033472e0bb57c6599fdcbd9f7677219">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="58e001b3-03d5-4b34-abf9-59e2cfe2e3d0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6444ba373961e4493ffb4522bc49aff9" ns2:_="">
     <xsd:import namespace="58e001b3-03d5-4b34-abf9-59e2cfe2e3d0"/>
@@ -2658,24 +2636,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9875775B-611E-456C-9690-799BC8577167}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024609E9-C262-4587-9050-8BFE45D722CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB5C63C8-7919-4159-800E-C7653F629984}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2693,6 +2669,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024609E9-C262-4587-9050-8BFE45D722CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9875775B-611E-456C-9690-799BC8577167}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>

--- a/AssessmentList.xlsx
+++ b/AssessmentList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/nicksalc_microsoft_com1/Documents/Github/SynapseHealthAssessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="311" documentId="8_{333580E6-5367-4011-81E7-E0FF622FDD49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1506C6E9-8EFF-46A6-AF68-4BB530C18B2A}"/>
+  <xr:revisionPtr revIDLastSave="428" documentId="8_{333580E6-5367-4011-81E7-E0FF622FDD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{625A4795-2E05-4B21-BF2E-FA8781915996}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5C4F97EF-D37C-4010-B2B3-1260A2189393}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5C4F97EF-D37C-4010-B2B3-1260A2189393}"/>
   </bookViews>
   <sheets>
     <sheet name="Informational" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="201">
   <si>
     <t>Item</t>
   </si>
@@ -112,18 +112,9 @@
     <t>Sub-Category</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
     <t xml:space="preserve">Collected by </t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Data Health</t>
   </si>
   <si>
@@ -439,18 +430,6 @@
     <t>Top 10 stored procedures that consume CPU time</t>
   </si>
   <si>
-    <t>Over/Under memory allocations</t>
-  </si>
-  <si>
-    <t>back-end kusto query</t>
-  </si>
-  <si>
-    <t>Query queuing analysis</t>
-  </si>
-  <si>
-    <t>Azure metrics</t>
-  </si>
-  <si>
     <t>SLO Analysis</t>
   </si>
   <si>
@@ -502,9 +481,6 @@
     <t>Key Rotation</t>
   </si>
   <si>
-    <t>are keys rotated regularly</t>
-  </si>
-  <si>
     <t xml:space="preserve">Connections Blocked by firewall </t>
   </si>
   <si>
@@ -550,19 +526,121 @@
     <t>https://raw.githubusercontent.com/microsoft/Azure_Synapse_Toolbox/master/SQL_Queries/Table_Information/TableSkew.sql</t>
   </si>
   <si>
-    <t>Fix link to point to healthassessment github</t>
-  </si>
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>Failed autostats jobs</t>
   </si>
   <si>
-    <t>Priority</t>
-  </si>
-  <si>
     <t>Owner</t>
+  </si>
+  <si>
+    <t>Test Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Pass/Fail/Warning Criteria</t>
+  </si>
+  <si>
+    <t>Data Collection Instructions</t>
+  </si>
+  <si>
+    <t>Memory Allocation Accuracy</t>
+  </si>
+  <si>
+    <t>WLM Analysis</t>
+  </si>
+  <si>
+    <t>Back-end Kusto Query</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Database Owners are as expected</t>
+  </si>
+  <si>
+    <t>Minimal set of principals should be members of fixed high impact database roles</t>
+  </si>
+  <si>
+    <t>Server-level firewall rules should not grant excessive access</t>
+  </si>
+  <si>
+    <t>Server-level firewall rules should be tracked and maintained at a strict minimum</t>
+  </si>
+  <si>
+    <t>Minimal set of princpals should be members of fixed Azure SQL DB master database roles</t>
+  </si>
+  <si>
+    <t>All memberships for user-defined roles should be intended</t>
+  </si>
+  <si>
+    <t>Excessive permisisons hould not be granted to PUBLIC role on objects or columns</t>
+  </si>
+  <si>
+    <t>Orphan database roles should be removed</t>
+  </si>
+  <si>
+    <t>Minimal set of principals should be members of fixed low impact database roels</t>
+  </si>
+  <si>
+    <t>track all users with access to the database (userdb)</t>
+  </si>
+  <si>
+    <t>track all users with access to the database (master)</t>
+  </si>
+  <si>
+    <t>Database user GUEST should not be a member of any role</t>
+  </si>
+  <si>
+    <t>eExeccisve permissions hsould not be granted to PUBLIC role</t>
+  </si>
+  <si>
+    <t>Prinicpal GUEST should not be granted permissions in the datbase</t>
+  </si>
+  <si>
+    <t>Principal GUEST should be be granted permissions on objects or columns</t>
+  </si>
+  <si>
+    <t>Guest user should not be gratned permissions on database securiables</t>
+  </si>
+  <si>
+    <t>db' user should not be used for normal service operation</t>
+  </si>
+  <si>
+    <t>Transparent data encryption should be enabled</t>
+  </si>
+  <si>
+    <t>Database Encryption Symmetric Keys should use AES algorithm</t>
+  </si>
+  <si>
+    <t>Certificate keys should use at least 2048 bits</t>
+  </si>
+  <si>
+    <t>User-Defined database roles should not be members of fixed roles</t>
+  </si>
+  <si>
+    <t>Minimal set of principals should be granted ALTER or ALTER ANY USER database-scoped permissions</t>
+  </si>
+  <si>
+    <t>Minimal set of principals should be gratned EXECUTE permissions on objects or columns</t>
+  </si>
+  <si>
+    <t>SQL Threat Detection should be enabled at the server level</t>
+  </si>
+  <si>
+    <t>Auditing should be enabled at the server level</t>
+  </si>
+  <si>
+    <t>database-level firewall rules should not grant excessive access</t>
+  </si>
+  <si>
+    <t>Database-level firewall rules should be tracked and maintained at a strict minimum</t>
+  </si>
+  <si>
+    <t>Portal: Vulnerability Assessment</t>
+  </si>
+  <si>
+    <t>Keys need to be rotated regularly</t>
   </si>
 </sst>
 </file>
@@ -663,7 +741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -674,25 +752,181 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="56">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -720,20 +954,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -758,7 +978,18 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -787,65 +1018,83 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{798E3207-8B2C-47A9-883E-D74382C09352}" name="Table1" displayName="Table1" ref="A1:K65" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{798E3207-8B2C-47A9-883E-D74382C09352}" name="Table1" displayName="Table1" ref="A1:K65" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:K65" xr:uid="{5703D66D-1822-4365-9273-C51F7109314D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:I65">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:J65">
     <sortCondition ref="C1:C65"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="9" xr3:uid="{D91F4007-4975-4614-94E0-D458D5B1D610}" name="Priority"/>
-    <tableColumn id="10" xr3:uid="{577D702B-537C-4071-AEE1-257C3E51036A}" name="Owner"/>
-    <tableColumn id="12" xr3:uid="{AFD01177-99B2-4497-9E50-5BC575779994}" name="Category"/>
-    <tableColumn id="1" xr3:uid="{8BACA63F-81DA-4522-B17C-D39F6BAFD188}" name="Sub-Category"/>
-    <tableColumn id="2" xr3:uid="{2726D609-060B-4E14-9FA3-8D516E62ED14}" name="Test"/>
-    <tableColumn id="3" xr3:uid="{59D8DB47-2BC5-4715-8454-8DD879E7250B}" name="Summary" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{7634C1FE-6EAD-4A81-9708-EF2CC045EB17}" name="Collected by "/>
-    <tableColumn id="5" xr3:uid="{50BD6E41-76DB-4D3E-B5CA-D6A176F9A73E}" name="Status"/>
-    <tableColumn id="6" xr3:uid="{06E5D75F-7411-4EFA-902F-E7339CDED8A3}" name="Link to query"/>
-    <tableColumn id="7" xr3:uid="{974B7D4C-6CB3-4F7C-A8C9-DC06624CB7EE}" name="Pre-Req view"/>
-    <tableColumn id="8" xr3:uid="{DBEF767F-D1EE-4551-8F4C-6EE91253C096}" name="Column1"/>
+    <tableColumn id="5" xr3:uid="{50BD6E41-76DB-4D3E-B5CA-D6A176F9A73E}" name="Status" dataDxfId="49"/>
+    <tableColumn id="10" xr3:uid="{577D702B-537C-4071-AEE1-257C3E51036A}" name="Owner" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{AFD01177-99B2-4497-9E50-5BC575779994}" name="Category" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{8BACA63F-81DA-4522-B17C-D39F6BAFD188}" name="Sub-Category" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{2726D609-060B-4E14-9FA3-8D516E62ED14}" name="Test Name" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{59D8DB47-2BC5-4715-8454-8DD879E7250B}" name="Description" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{4C10920D-BA51-4415-9DA1-81C94A3A83EE}" name="Pass/Fail/Warning Criteria" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{7634C1FE-6EAD-4A81-9708-EF2CC045EB17}" name="Collected by " dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{739FE647-472E-4A5D-9891-8BBA5C7F2E59}" name="Data Collection Instructions" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{06E5D75F-7411-4EFA-902F-E7339CDED8A3}" name="Link to query" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{974B7D4C-6CB3-4F7C-A8C9-DC06624CB7EE}" name="Pre-Req view" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9160E513-D54E-42D7-B287-CFF41F71D002}" name="Table36" displayName="Table36" ref="A1:E7" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="A1:E7" xr:uid="{0A3FC002-EB2C-4E84-A86E-AF4DB879ABD0}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1AEDD550-EDA3-4611-91A3-39A5A16E67AB}" name="Category"/>
-    <tableColumn id="2" xr3:uid="{2549E775-4710-4366-B7E5-E0C86A08AA70}" name="Test"/>
-    <tableColumn id="3" xr3:uid="{D144317D-A11D-432F-A386-3532A4E61B5E}" name="Summary"/>
-    <tableColumn id="4" xr3:uid="{2F25E5F2-4A7A-45B8-9EB6-59A336706CEF}" name="Collected by "/>
-    <tableColumn id="5" xr3:uid="{0F0093D9-EF8A-4DFD-98D9-AAD96E052AD3}" name="Notes"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FCB21128-7E2F-4FB8-9FEF-4BC867D86F82}" name="Table5" displayName="Table5" ref="A1:K3" totalsRowShown="0" headerRowDxfId="53" dataDxfId="25" headerRowBorderDxfId="54" tableBorderDxfId="55">
+  <autoFilter ref="A1:K3" xr:uid="{FCB21128-7E2F-4FB8-9FEF-4BC867D86F82}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{8899FB88-9BC2-40AE-94F9-C71062C586EC}" name="Status" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{DFE2A64F-7736-4744-9705-01AA56B48AD4}" name="Owner" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{3B62DFCC-7A12-4BC9-BE66-269AC216BC5D}" name="Category" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{518A328F-DF18-402F-8C7B-BC481A708C71}" name="Sub-Category" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{9D6E6A35-5814-4CF9-9810-18EC347DCF06}" name="Test Name" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{EA480C38-9E70-4523-B0FA-706CE9CB21DA}" name="Description" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{069379D4-A3D3-4B94-85D5-AA7CC7A6C5F6}" name="Pass/Fail/Warning Criteria" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{AD1BEDDA-1B47-4871-AD38-2D413130E357}" name="Collected by " dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{47346803-DE49-4A9E-94C2-498F2B520D78}" name="Data Collection Instructions" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{35A74EEE-C206-4216-876F-33D34213ECD5}" name="Link to query" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{10372402-6087-47C0-8AEA-65AEB28AEA22}" name="Pre-Req view" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C4A81218-99BF-41A8-AF30-B6AF720D067E}" name="Table3" displayName="Table3" ref="A1:E7" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:E7" xr:uid="{BA3E3F10-6DF8-4661-975B-9BAB423767DA}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C29D9085-2BC1-44C3-933A-42767883421C}" name="Category"/>
-    <tableColumn id="2" xr3:uid="{3F55F0D5-EE67-4D5B-BF9D-A7F3A061240A}" name="Test"/>
-    <tableColumn id="3" xr3:uid="{E42E658A-FB45-4F6D-B0D6-75476E1D4CC7}" name="Summary"/>
-    <tableColumn id="4" xr3:uid="{9761E9D7-47BC-4094-B7A0-F0F43B3917D5}" name="Collected by "/>
-    <tableColumn id="5" xr3:uid="{7B6E8FAE-E983-406E-9E59-3A1BC89BCDBD}" name="Notes"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DA239345-5E00-44ED-864E-2C2AB65FB85C}" name="Table57" displayName="Table57" ref="A1:K6" totalsRowShown="0" headerRowDxfId="52" dataDxfId="13" headerRowBorderDxfId="50" tableBorderDxfId="51">
+  <autoFilter ref="A1:K6" xr:uid="{DA239345-5E00-44ED-864E-2C2AB65FB85C}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{4B1A06D6-71B4-4702-96F8-7675723696DE}" name="Status" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{87973FC8-B713-4E17-9089-DC6D52FF4EC9}" name="Owner" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{F7552A79-A019-477B-87D8-94803EBC6FB7}" name="Category" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{9215DEAD-E6F2-47E5-BC6C-8B0CF0A6321E}" name="Sub-Category" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{C73571C3-8843-4756-B834-57FF3424402C}" name="Test Name" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{13C22D1D-28F3-4314-85AB-E8CA6B4F875E}" name="Description" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{2AA408CE-6C40-4B77-8C7F-205FA82D8EA5}" name="Pass/Fail/Warning Criteria" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{F56418F5-F74E-4FB8-8E0B-7D235BA46AF0}" name="Collected by " dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{97BB4151-CCA0-43E7-B359-EE55D5153301}" name="Data Collection Instructions" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{90426409-5B66-493F-8B69-42791AC717BB}" name="Link to query" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{628FDB5E-397A-48F6-AC1B-EB58569BCCF6}" name="Pre-Req view" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C53AC56D-C26D-4644-A247-CF22D45D672C}" name="Table2" displayName="Table2" ref="A1:E13" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:E13" xr:uid="{DBBE2E09-617F-4906-AF23-9F1A1B56DC15}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CD8CA331-EE0A-4CD3-9D4C-CB44A72F56D0}" name="Category" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{92792863-5140-4D3C-88D0-314F304B55E3}" name="Test" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{9FEA9F16-0F30-4A1E-AD06-61506EABF2F0}" name="Summary" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{35F5A41D-4A43-422A-806B-4CC8BDB6C593}" name="Collected by " dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{787911A5-9AF0-4226-89BF-B70697F33D7B}" name="Notes" dataCellStyle="Normal"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D3AA1321-ADA8-4F94-AF98-0CCCAB13302E}" name="Table7" displayName="Table7" ref="A1:K41" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:K41" xr:uid="{D3AA1321-ADA8-4F94-AF98-0CCCAB13302E}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{979BA5CA-7BE8-45E2-BE0B-99F0A2E3A306}" name="Status" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{90202A62-3A32-432D-BD26-5EDEA7D02E46}" name="Owner" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{F6A4A4DE-1796-4B29-A4B4-3F6C7FCF6C23}" name="Category" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{2836B875-1C5F-4399-B220-6B26E78D9B10}" name="Sub-Category" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{7FC20B0B-F850-4809-861D-46B69C411896}" name="Test Name" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{F0C3E037-6A53-427A-9C61-81B661427F7D}" name="Description" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{8C5F4E4C-8333-48B6-98D0-994AA36EB2BE}" name="Pass/Fail/Warning Criteria" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{2D8D4D2B-5A03-4337-9899-62D9CC717163}" name="Collected by " dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{8016E2CA-4A1D-415A-8868-FBBE80EA1D45}" name="Data Collection Instructions" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{0049A071-633F-4DBC-B9E4-779FB60FD1EC}" name="Link to query" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{FA6C304F-09C0-40C4-9B80-CCF549161A64}" name="Pre-Req view" dataDxfId="2" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1275,933 +1524,1104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FB388A-8907-42F8-9F51-A2DBE026E81A}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.9296875" customWidth="1"/>
-    <col min="2" max="3" width="25.59765625" customWidth="1"/>
-    <col min="4" max="4" width="22.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="49" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="61.796875" customWidth="1"/>
-    <col min="8" max="8" width="31.265625" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="88.73046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="118.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49" style="1" customWidth="1"/>
+    <col min="8" max="9" width="61.796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="70.265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="67.1328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="118.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="I1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="5" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="K9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="H16" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E14" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" t="s">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H54" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C28" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C29" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" t="s">
-        <v>74</v>
-      </c>
-      <c r="I29" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="3:9" ht="57" x14ac:dyDescent="0.45">
-      <c r="C30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="C31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C32" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="C33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" t="s">
-        <v>163</v>
-      </c>
-      <c r="I34" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" t="s">
-        <v>89</v>
-      </c>
-      <c r="I35" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C36" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C40" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" t="s">
-        <v>95</v>
-      </c>
-      <c r="G40" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="E60" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C42" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C43" t="s">
-        <v>79</v>
-      </c>
-      <c r="E43" t="s">
-        <v>99</v>
-      </c>
-      <c r="G43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C44" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C46" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.45">
-      <c r="C47" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="48" spans="3:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" t="s">
-        <v>107</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" t="s">
-        <v>111</v>
-      </c>
-      <c r="G49" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C50" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C51" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" t="s">
-        <v>110</v>
-      </c>
-      <c r="E51" t="s">
-        <v>113</v>
-      </c>
-      <c r="G51" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C52" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" t="s">
-        <v>110</v>
-      </c>
-      <c r="E52" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C53" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" t="s">
-        <v>110</v>
-      </c>
-      <c r="E53" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C54" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" t="s">
-        <v>110</v>
-      </c>
-      <c r="E54" t="s">
-        <v>117</v>
-      </c>
-      <c r="G54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C55" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" t="s">
-        <v>110</v>
-      </c>
-      <c r="E55" t="s">
-        <v>118</v>
-      </c>
-      <c r="G55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C56" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" t="s">
-        <v>110</v>
-      </c>
-      <c r="E56" t="s">
-        <v>119</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57" t="s">
-        <v>110</v>
-      </c>
-      <c r="E57" t="s">
-        <v>121</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C58" t="s">
-        <v>109</v>
-      </c>
-      <c r="D58" t="s">
-        <v>110</v>
-      </c>
-      <c r="E58" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C59" t="s">
-        <v>109</v>
-      </c>
-      <c r="D59" t="s">
-        <v>110</v>
-      </c>
-      <c r="E59" t="s">
-        <v>124</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C60" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60" t="s">
-        <v>71</v>
-      </c>
-      <c r="E60" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C61" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" t="s">
-        <v>127</v>
-      </c>
-      <c r="E61" t="s">
-        <v>128</v>
-      </c>
-      <c r="F61" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C62" t="s">
-        <v>109</v>
-      </c>
-      <c r="D62" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C63" t="s">
-        <v>109</v>
-      </c>
-      <c r="E63" t="s">
-        <v>131</v>
-      </c>
-      <c r="G63" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="C64" t="s">
-        <v>109</v>
-      </c>
-      <c r="E64" t="s">
-        <v>132</v>
-      </c>
-      <c r="G64" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E65" s="1"/>
+      <c r="H64" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A65" xr:uid="{688D37AC-BD01-4520-901C-AA5C4399516C}">
+      <formula1>"Not Started, In progress,,Completed"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J9" r:id="rId1" xr:uid="{8B2E3FCF-FBAA-4D89-A2BD-D0D0F585DA43}"/>
-    <hyperlink ref="I7" r:id="rId2" xr:uid="{114B2659-B33C-4854-87B4-B4D768A329CE}"/>
-    <hyperlink ref="J2" r:id="rId3" xr:uid="{9509FFA4-0C2B-4706-B902-30D3FD56DF94}"/>
-    <hyperlink ref="I9" r:id="rId4" xr:uid="{88FEA10A-7BB4-4841-90E3-AAA6EDA79E90}"/>
+    <hyperlink ref="K9" r:id="rId1" xr:uid="{8B2E3FCF-FBAA-4D89-A2BD-D0D0F585DA43}"/>
+    <hyperlink ref="J7" r:id="rId2" xr:uid="{114B2659-B33C-4854-87B4-B4D768A329CE}"/>
+    <hyperlink ref="K2" r:id="rId3" xr:uid="{9509FFA4-0C2B-4706-B902-30D3FD56DF94}"/>
+    <hyperlink ref="J9" r:id="rId4" xr:uid="{88FEA10A-7BB4-4841-90E3-AAA6EDA79E90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
@@ -2213,54 +2633,114 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5384E3B-8431-40CC-9C12-60597BFBBB82}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="A2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="26.265625" customWidth="1"/>
+    <col min="3" max="3" width="26.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.265625" customWidth="1"/>
+    <col min="7" max="7" width="24.53125" customWidth="1"/>
+    <col min="8" max="8" width="18.86328125" customWidth="1"/>
+    <col min="9" max="9" width="25.46484375" customWidth="1"/>
+    <col min="10" max="10" width="13.46484375" customWidth="1"/>
+    <col min="11" max="11" width="13.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" t="s">
-        <v>136</v>
-      </c>
+      <c r="I1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{57C12568-9C44-45AB-A53C-5802AB301478}">
+      <formula1>"Not Started, In progress,,Completed"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2270,78 +2750,163 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88900C96-B1AF-4FF1-A8EC-668A66C27C48}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="G5" sqref="A2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
-    <col min="4" max="4" width="13.3984375" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.06640625" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" t="s">
-        <v>142</v>
-      </c>
+      <c r="I1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A6" xr:uid="{E66EC8F2-D8BB-4BB3-825F-4627459A565C}">
+      <formula1>"Not Started, In progress,,Completed"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2351,138 +2916,595 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9483764-06CE-40A2-B3B7-2A21B8141F60}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="54.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="11" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="F11" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" t="s">
-        <v>156</v>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A41" xr:uid="{778CBB6B-AD2B-4843-9D76-ADAECDB58003}">
+      <formula1>"Not Started, In progress,,Completed"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2491,6 +3513,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046C9DBCDDFD8DB418F41B2241B54161A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7033472e0bb57c6599fdcbd9f7677219">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="58e001b3-03d5-4b34-abf9-59e2cfe2e3d0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6444ba373961e4493ffb4522bc49aff9" ns2:_="">
     <xsd:import namespace="58e001b3-03d5-4b34-abf9-59e2cfe2e3d0"/>
@@ -2636,22 +3673,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9875775B-611E-456C-9690-799BC8577167}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024609E9-C262-4587-9050-8BFE45D722CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB5C63C8-7919-4159-800E-C7653F629984}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2669,23 +3708,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024609E9-C262-4587-9050-8BFE45D722CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9875775B-611E-456C-9690-799BC8577167}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>

--- a/AssessmentList.xlsx
+++ b/AssessmentList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/nicksalc_microsoft_com1/Documents/Github/SynapseHealthAssessment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APS\HC - ADW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="428" documentId="8_{333580E6-5367-4011-81E7-E0FF622FDD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{625A4795-2E05-4B21-BF2E-FA8781915996}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DA84369-714E-4BE4-8048-692F0F4B6DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5C4F97EF-D37C-4010-B2B3-1260A2189393}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16440" activeTab="1" xr2:uid="{5C4F97EF-D37C-4010-B2B3-1260A2189393}"/>
   </bookViews>
   <sheets>
     <sheet name="Informational" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="204">
   <si>
     <t>Item</t>
   </si>
@@ -641,6 +641,15 @@
   </si>
   <si>
     <t>Keys need to be rotated regularly</t>
+  </si>
+  <si>
+    <t>SimonF</t>
+  </si>
+  <si>
+    <t>Small compressed RGs are inefficient. Trim reason should be used to determine the resolution.</t>
+  </si>
+  <si>
+    <t>Deleted row in Compressed RGs will act as a filter, causing row-by-row processing, with potentially significant performance impacts</t>
   </si>
 </sst>
 </file>
@@ -741,7 +750,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -749,15 +758,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -766,6 +781,84 @@
   </cellStyles>
   <dxfs count="56">
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -799,118 +892,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -920,13 +906,6 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -954,6 +933,56 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -976,20 +1005,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1018,83 +1033,83 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{798E3207-8B2C-47A9-883E-D74382C09352}" name="Table1" displayName="Table1" ref="A1:K65" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{798E3207-8B2C-47A9-883E-D74382C09352}" name="Table1" displayName="Table1" ref="A1:K65" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:K65" xr:uid="{5703D66D-1822-4365-9273-C51F7109314D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:J65">
     <sortCondition ref="C1:C65"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="5" xr3:uid="{50BD6E41-76DB-4D3E-B5CA-D6A176F9A73E}" name="Status" dataDxfId="49"/>
-    <tableColumn id="10" xr3:uid="{577D702B-537C-4071-AEE1-257C3E51036A}" name="Owner" dataDxfId="48"/>
-    <tableColumn id="12" xr3:uid="{AFD01177-99B2-4497-9E50-5BC575779994}" name="Category" dataDxfId="47"/>
-    <tableColumn id="1" xr3:uid="{8BACA63F-81DA-4522-B17C-D39F6BAFD188}" name="Sub-Category" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{2726D609-060B-4E14-9FA3-8D516E62ED14}" name="Test Name" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{59D8DB47-2BC5-4715-8454-8DD879E7250B}" name="Description" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{4C10920D-BA51-4415-9DA1-81C94A3A83EE}" name="Pass/Fail/Warning Criteria" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{7634C1FE-6EAD-4A81-9708-EF2CC045EB17}" name="Collected by " dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{739FE647-472E-4A5D-9891-8BBA5C7F2E59}" name="Data Collection Instructions" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{06E5D75F-7411-4EFA-902F-E7339CDED8A3}" name="Link to query" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{974B7D4C-6CB3-4F7C-A8C9-DC06624CB7EE}" name="Pre-Req view" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{50BD6E41-76DB-4D3E-B5CA-D6A176F9A73E}" name="Status" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{577D702B-537C-4071-AEE1-257C3E51036A}" name="Owner" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{AFD01177-99B2-4497-9E50-5BC575779994}" name="Category" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{8BACA63F-81DA-4522-B17C-D39F6BAFD188}" name="Sub-Category" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{2726D609-060B-4E14-9FA3-8D516E62ED14}" name="Test Name" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{59D8DB47-2BC5-4715-8454-8DD879E7250B}" name="Description" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{4C10920D-BA51-4415-9DA1-81C94A3A83EE}" name="Pass/Fail/Warning Criteria" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{7634C1FE-6EAD-4A81-9708-EF2CC045EB17}" name="Collected by " dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{739FE647-472E-4A5D-9891-8BBA5C7F2E59}" name="Data Collection Instructions" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{06E5D75F-7411-4EFA-902F-E7339CDED8A3}" name="Link to query" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{974B7D4C-6CB3-4F7C-A8C9-DC06624CB7EE}" name="Pre-Req view" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FCB21128-7E2F-4FB8-9FEF-4BC867D86F82}" name="Table5" displayName="Table5" ref="A1:K3" totalsRowShown="0" headerRowDxfId="53" dataDxfId="25" headerRowBorderDxfId="54" tableBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FCB21128-7E2F-4FB8-9FEF-4BC867D86F82}" name="Table5" displayName="Table5" ref="A1:K3" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52">
   <autoFilter ref="A1:K3" xr:uid="{FCB21128-7E2F-4FB8-9FEF-4BC867D86F82}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{8899FB88-9BC2-40AE-94F9-C71062C586EC}" name="Status" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{DFE2A64F-7736-4744-9705-01AA56B48AD4}" name="Owner" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{3B62DFCC-7A12-4BC9-BE66-269AC216BC5D}" name="Category" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{518A328F-DF18-402F-8C7B-BC481A708C71}" name="Sub-Category" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{9D6E6A35-5814-4CF9-9810-18EC347DCF06}" name="Test Name" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{EA480C38-9E70-4523-B0FA-706CE9CB21DA}" name="Description" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{069379D4-A3D3-4B94-85D5-AA7CC7A6C5F6}" name="Pass/Fail/Warning Criteria" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{AD1BEDDA-1B47-4871-AD38-2D413130E357}" name="Collected by " dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{47346803-DE49-4A9E-94C2-498F2B520D78}" name="Data Collection Instructions" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{35A74EEE-C206-4216-876F-33D34213ECD5}" name="Link to query" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{10372402-6087-47C0-8AEA-65AEB28AEA22}" name="Pre-Req view" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{8899FB88-9BC2-40AE-94F9-C71062C586EC}" name="Status" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{DFE2A64F-7736-4744-9705-01AA56B48AD4}" name="Owner" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{3B62DFCC-7A12-4BC9-BE66-269AC216BC5D}" name="Category" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{518A328F-DF18-402F-8C7B-BC481A708C71}" name="Sub-Category" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{9D6E6A35-5814-4CF9-9810-18EC347DCF06}" name="Test Name" dataDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{EA480C38-9E70-4523-B0FA-706CE9CB21DA}" name="Description" dataDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{069379D4-A3D3-4B94-85D5-AA7CC7A6C5F6}" name="Pass/Fail/Warning Criteria" dataDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{AD1BEDDA-1B47-4871-AD38-2D413130E357}" name="Collected by " dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{47346803-DE49-4A9E-94C2-498F2B520D78}" name="Data Collection Instructions" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{35A74EEE-C206-4216-876F-33D34213ECD5}" name="Link to query" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{10372402-6087-47C0-8AEA-65AEB28AEA22}" name="Pre-Req view" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DA239345-5E00-44ED-864E-2C2AB65FB85C}" name="Table57" displayName="Table57" ref="A1:K6" totalsRowShown="0" headerRowDxfId="52" dataDxfId="13" headerRowBorderDxfId="50" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DA239345-5E00-44ED-864E-2C2AB65FB85C}" name="Table57" displayName="Table57" ref="A1:K6" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37">
   <autoFilter ref="A1:K6" xr:uid="{DA239345-5E00-44ED-864E-2C2AB65FB85C}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{4B1A06D6-71B4-4702-96F8-7675723696DE}" name="Status" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{87973FC8-B713-4E17-9089-DC6D52FF4EC9}" name="Owner" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{F7552A79-A019-477B-87D8-94803EBC6FB7}" name="Category" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{9215DEAD-E6F2-47E5-BC6C-8B0CF0A6321E}" name="Sub-Category" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{C73571C3-8843-4756-B834-57FF3424402C}" name="Test Name" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{13C22D1D-28F3-4314-85AB-E8CA6B4F875E}" name="Description" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{2AA408CE-6C40-4B77-8C7F-205FA82D8EA5}" name="Pass/Fail/Warning Criteria" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{F56418F5-F74E-4FB8-8E0B-7D235BA46AF0}" name="Collected by " dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{97BB4151-CCA0-43E7-B359-EE55D5153301}" name="Data Collection Instructions" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{90426409-5B66-493F-8B69-42791AC717BB}" name="Link to query" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{628FDB5E-397A-48F6-AC1B-EB58569BCCF6}" name="Pre-Req view" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{4B1A06D6-71B4-4702-96F8-7675723696DE}" name="Status" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{87973FC8-B713-4E17-9089-DC6D52FF4EC9}" name="Owner" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{F7552A79-A019-477B-87D8-94803EBC6FB7}" name="Category" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{9215DEAD-E6F2-47E5-BC6C-8B0CF0A6321E}" name="Sub-Category" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{C73571C3-8843-4756-B834-57FF3424402C}" name="Test Name" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{13C22D1D-28F3-4314-85AB-E8CA6B4F875E}" name="Description" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{2AA408CE-6C40-4B77-8C7F-205FA82D8EA5}" name="Pass/Fail/Warning Criteria" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{F56418F5-F74E-4FB8-8E0B-7D235BA46AF0}" name="Collected by " dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{97BB4151-CCA0-43E7-B359-EE55D5153301}" name="Data Collection Instructions" dataDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{90426409-5B66-493F-8B69-42791AC717BB}" name="Link to query" dataDxfId="27"/>
+    <tableColumn id="11" xr3:uid="{628FDB5E-397A-48F6-AC1B-EB58569BCCF6}" name="Pre-Req view" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D3AA1321-ADA8-4F94-AF98-0CCCAB13302E}" name="Table7" displayName="Table7" ref="A1:K41" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D3AA1321-ADA8-4F94-AF98-0CCCAB13302E}" name="Table7" displayName="Table7" ref="A1:K41" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:K41" xr:uid="{D3AA1321-ADA8-4F94-AF98-0CCCAB13302E}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{979BA5CA-7BE8-45E2-BE0B-99F0A2E3A306}" name="Status" dataDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{90202A62-3A32-432D-BD26-5EDEA7D02E46}" name="Owner" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{F6A4A4DE-1796-4B29-A4B4-3F6C7FCF6C23}" name="Category" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{2836B875-1C5F-4399-B220-6B26E78D9B10}" name="Sub-Category" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{7FC20B0B-F850-4809-861D-46B69C411896}" name="Test Name" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{F0C3E037-6A53-427A-9C61-81B661427F7D}" name="Description" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{8C5F4E4C-8333-48B6-98D0-994AA36EB2BE}" name="Pass/Fail/Warning Criteria" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{2D8D4D2B-5A03-4337-9899-62D9CC717163}" name="Collected by " dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{8016E2CA-4A1D-415A-8868-FBBE80EA1D45}" name="Data Collection Instructions" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{0049A071-633F-4DBC-B9E4-779FB60FD1EC}" name="Link to query" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{FA6C304F-09C0-40C4-9B80-CCF549161A64}" name="Pre-Req view" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{979BA5CA-7BE8-45E2-BE0B-99F0A2E3A306}" name="Status" dataDxfId="25" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{90202A62-3A32-432D-BD26-5EDEA7D02E46}" name="Owner" dataDxfId="24" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{F6A4A4DE-1796-4B29-A4B4-3F6C7FCF6C23}" name="Category" dataDxfId="23" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{2836B875-1C5F-4399-B220-6B26E78D9B10}" name="Sub-Category" dataDxfId="22" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{7FC20B0B-F850-4809-861D-46B69C411896}" name="Test Name" dataDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{F0C3E037-6A53-427A-9C61-81B661427F7D}" name="Description" dataDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{8C5F4E4C-8333-48B6-98D0-994AA36EB2BE}" name="Pass/Fail/Warning Criteria" dataDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{2D8D4D2B-5A03-4337-9899-62D9CC717163}" name="Collected by " dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{8016E2CA-4A1D-415A-8868-FBBE80EA1D45}" name="Data Collection Instructions" dataDxfId="17" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{0049A071-633F-4DBC-B9E4-779FB60FD1EC}" name="Link to query" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{FA6C304F-09C0-40C4-9B80-CCF549161A64}" name="Pre-Req view" dataDxfId="15" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1403,15 +1418,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.86328125" customWidth="1"/>
-    <col min="3" max="3" width="45.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.265625" customWidth="1"/>
+    <col min="2" max="2" width="28.84375" customWidth="1"/>
+    <col min="3" max="3" width="45.23046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1425,7 +1440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1436,7 +1451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1447,7 +1462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1458,7 +1473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1469,7 +1484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1480,7 +1495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1491,22 +1506,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1524,1089 +1539,1111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FB388A-8907-42F8-9F51-A2DBE026E81A}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="49" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49" style="1" customWidth="1"/>
-    <col min="8" max="9" width="61.796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="70.265625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="67.1328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="118.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.61328125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.61328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.69140625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="49" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49" style="7" customWidth="1"/>
+    <col min="8" max="9" width="61.765625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="70.23046875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="67.15234375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="118.84375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.23046875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:11" ht="102" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="F6" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="7" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="F7" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="1:11" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="9" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="10" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    <row r="11" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    <row r="12" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row r="13" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    <row r="14" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    <row r="15" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="1" t="s">
+    <row r="16" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="1" t="s">
+    <row r="17" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="1" t="s">
+    <row r="18" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C19" s="1" t="s">
+    <row r="19" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="1" t="s">
+    <row r="20" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A20" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="1" t="s">
+    <row r="21" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="1" t="s">
+    <row r="22" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="1" t="s">
+    <row r="23" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="1" t="s">
+    <row r="24" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="1" t="s">
+    <row r="25" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="1" t="s">
+    <row r="26" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="1" t="s">
+    <row r="27" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A27" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C28" s="1" t="s">
+    <row r="28" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" s="1" t="s">
+    <row r="29" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="57" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="1" t="s">
+    <row r="30" spans="1:10" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="1" t="s">
+    <row r="31" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A31" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C32" s="1" t="s">
+    <row r="32" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A32" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" s="1" t="s">
+    <row r="33" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="1" t="s">
+    <row r="34" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A34" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="1" t="s">
+    <row r="35" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A35" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C36" s="1" t="s">
+    <row r="36" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A36" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37" s="1" t="s">
+    <row r="37" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A37" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C38" s="1" t="s">
+    <row r="38" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A38" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C39" s="1" t="s">
+    <row r="39" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A39" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="1" t="s">
+    <row r="40" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A40" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C41" s="1" t="s">
+    <row r="41" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A41" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="1" t="s">
+    <row r="42" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A42" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" s="1" t="s">
+    <row r="43" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A43" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C44" s="1" t="s">
+    <row r="44" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A44" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C45" s="1" t="s">
+    <row r="45" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A45" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C46" s="1" t="s">
+    <row r="46" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A46" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" s="1" t="s">
+    <row r="47" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A47" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C48" s="1" t="s">
+    <row r="48" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A48" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C49" s="1" t="s">
+    <row r="49" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A49" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C50" s="1" t="s">
+    <row r="50" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A50" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C51" s="1" t="s">
+    <row r="51" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A51" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C52" s="1" t="s">
+    <row r="52" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A52" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C53" s="1" t="s">
+    <row r="53" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A53" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" s="1" t="s">
+    <row r="54" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A54" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C55" s="1" t="s">
+    <row r="55" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A55" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C56" s="1" t="s">
+    <row r="56" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A56" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C57" s="1" t="s">
+    <row r="57" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A57" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C58" s="1" t="s">
+    <row r="58" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A58" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C59" s="1" t="s">
+    <row r="59" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A59" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C60" s="1" t="s">
+    <row r="60" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A60" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A61" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C61" s="1" t="s">
+    <row r="61" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A61" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A62" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C62" s="1" t="s">
+    <row r="62" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A62" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A63" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C63" s="1" t="s">
+    <row r="63" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A63" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A64" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C64" s="1" t="s">
+    <row r="64" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A64" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A65" s="7" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2639,21 +2676,21 @@
       <selection activeCell="C3" sqref="A2:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="26.265625" customWidth="1"/>
-    <col min="3" max="3" width="26.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3984375" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.265625" customWidth="1"/>
-    <col min="7" max="7" width="24.53125" customWidth="1"/>
-    <col min="8" max="8" width="18.86328125" customWidth="1"/>
-    <col min="9" max="9" width="25.46484375" customWidth="1"/>
-    <col min="10" max="10" width="13.46484375" customWidth="1"/>
-    <col min="11" max="11" width="13.86328125" customWidth="1"/>
+    <col min="1" max="2" width="26.23046875" customWidth="1"/>
+    <col min="3" max="3" width="26.23046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.3828125" customWidth="1"/>
+    <col min="5" max="5" width="23.69140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.23046875" customWidth="1"/>
+    <col min="7" max="7" width="24.53515625" customWidth="1"/>
+    <col min="8" max="8" width="18.84375" customWidth="1"/>
+    <col min="9" max="9" width="25.4609375" customWidth="1"/>
+    <col min="10" max="10" width="13.4609375" customWidth="1"/>
+    <col min="11" max="11" width="13.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>151</v>
       </c>
@@ -2669,10 +2706,10 @@
       <c r="E1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>166</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2688,7 +2725,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>171</v>
       </c>
@@ -2709,7 +2746,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>171</v>
       </c>
@@ -2730,7 +2767,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
@@ -2756,22 +2793,22 @@
       <selection activeCell="G5" sqref="A2:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.06640625" customWidth="1"/>
-    <col min="8" max="8" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.23046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.07421875" customWidth="1"/>
+    <col min="8" max="8" width="13.765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>151</v>
       </c>
@@ -2787,10 +2824,10 @@
       <c r="E1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>166</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2806,7 +2843,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>171</v>
       </c>
@@ -2825,7 +2862,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>171</v>
       </c>
@@ -2844,7 +2881,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>171</v>
       </c>
@@ -2863,7 +2900,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>171</v>
       </c>
@@ -2882,7 +2919,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>171</v>
       </c>
@@ -2918,584 +2955,585 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9483764-06CE-40A2-B3B7-2A21B8141F60}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47.796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="54.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.69140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4609375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.23046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.3828125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="47.765625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="54.23046875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="28.4609375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.3046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.23046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.23046875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="1" t="s">
+    <row r="2" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="1" t="s">
+    <row r="3" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="1" t="s">
+    <row r="4" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="1" t="s">
+    <row r="5" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" s="1" t="s">
+    <row r="6" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="1" t="s">
+    <row r="7" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" s="1" t="s">
+    <row r="8" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="1" t="s">
+    <row r="9" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="1" t="s">
+    <row r="10" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="1" t="s">
+    <row r="11" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="1" t="s">
+    <row r="12" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="1" t="s">
+    <row r="13" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="1" t="s">
+    <row r="14" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="1" t="s">
+    <row r="15" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="1" t="s">
+    <row r="16" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="1" t="s">
+    <row r="17" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="1" t="s">
+    <row r="18" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="1" t="s">
+    <row r="19" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A19" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="1" t="s">
+    <row r="20" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A20" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="1" t="s">
+    <row r="21" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="1" t="s">
+    <row r="22" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="1" t="s">
+    <row r="23" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="1" t="s">
+    <row r="24" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="1" t="s">
+    <row r="25" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="1" t="s">
+    <row r="26" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="1" t="s">
+    <row r="27" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A27" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="1" t="s">
+    <row r="28" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="1" t="s">
+    <row r="29" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="1" t="s">
+    <row r="30" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" s="1" t="s">
+    <row r="31" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A31" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E32" s="1" t="s">
+    <row r="32" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A32" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="1" t="s">
+    <row r="33" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="1" t="s">
+    <row r="34" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A34" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="1" t="s">
+    <row r="35" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A35" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E36" s="1" t="s">
+    <row r="36" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A36" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E37" s="1" t="s">
+    <row r="37" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A37" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="1" t="s">
+    <row r="38" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A38" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E39" s="1" t="s">
+    <row r="39" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A39" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E40" s="1" t="s">
+    <row r="40" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A40" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41" s="1" t="s">
+    <row r="41" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A41" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="7" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3513,21 +3551,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046C9DBCDDFD8DB418F41B2241B54161A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7033472e0bb57c6599fdcbd9f7677219">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="58e001b3-03d5-4b34-abf9-59e2cfe2e3d0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6444ba373961e4493ffb4522bc49aff9" ns2:_="">
     <xsd:import namespace="58e001b3-03d5-4b34-abf9-59e2cfe2e3d0"/>
@@ -3673,24 +3696,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9875775B-611E-456C-9690-799BC8577167}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024609E9-C262-4587-9050-8BFE45D722CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB5C63C8-7919-4159-800E-C7653F629984}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3708,6 +3729,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024609E9-C262-4587-9050-8BFE45D722CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9875775B-611E-456C-9690-799BC8577167}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>

--- a/AssessmentList.xlsx
+++ b/AssessmentList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APS\HC - ADW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/nicksalc_microsoft_com1/Documents/Github/SynapseHealthAssessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DA84369-714E-4BE4-8048-692F0F4B6DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{8DA84369-714E-4BE4-8048-692F0F4B6DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8A23A8F-64B4-49FA-8367-F0204A12AF3E}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16440" activeTab="1" xr2:uid="{5C4F97EF-D37C-4010-B2B3-1260A2189393}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5C4F97EF-D37C-4010-B2B3-1260A2189393}"/>
   </bookViews>
   <sheets>
     <sheet name="Informational" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="205">
   <si>
     <t>Item</t>
   </si>
@@ -650,6 +650,9 @@
   </si>
   <si>
     <t>Deleted row in Compressed RGs will act as a filter, causing row-by-row processing, with potentially significant performance impacts</t>
+  </si>
+  <si>
+    <t>Portal: Azure Metrics</t>
   </si>
 </sst>
 </file>
@@ -820,45 +823,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1005,6 +969,45 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1033,83 +1036,83 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{798E3207-8B2C-47A9-883E-D74382C09352}" name="Table1" displayName="Table1" ref="A1:K65" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{798E3207-8B2C-47A9-883E-D74382C09352}" name="Table1" displayName="Table1" ref="A1:K65" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="A1:K65" xr:uid="{5703D66D-1822-4365-9273-C51F7109314D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:J65">
     <sortCondition ref="C1:C65"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="5" xr3:uid="{50BD6E41-76DB-4D3E-B5CA-D6A176F9A73E}" name="Status" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{577D702B-537C-4071-AEE1-257C3E51036A}" name="Owner" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{AFD01177-99B2-4497-9E50-5BC575779994}" name="Category" dataDxfId="10"/>
-    <tableColumn id="1" xr3:uid="{8BACA63F-81DA-4522-B17C-D39F6BAFD188}" name="Sub-Category" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{2726D609-060B-4E14-9FA3-8D516E62ED14}" name="Test Name" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{59D8DB47-2BC5-4715-8454-8DD879E7250B}" name="Description" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{4C10920D-BA51-4415-9DA1-81C94A3A83EE}" name="Pass/Fail/Warning Criteria" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{7634C1FE-6EAD-4A81-9708-EF2CC045EB17}" name="Collected by " dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{739FE647-472E-4A5D-9891-8BBA5C7F2E59}" name="Data Collection Instructions" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{06E5D75F-7411-4EFA-902F-E7339CDED8A3}" name="Link to query" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{974B7D4C-6CB3-4F7C-A8C9-DC06624CB7EE}" name="Pre-Req view" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{50BD6E41-76DB-4D3E-B5CA-D6A176F9A73E}" name="Status" dataDxfId="53"/>
+    <tableColumn id="10" xr3:uid="{577D702B-537C-4071-AEE1-257C3E51036A}" name="Owner" dataDxfId="52"/>
+    <tableColumn id="12" xr3:uid="{AFD01177-99B2-4497-9E50-5BC575779994}" name="Category" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{8BACA63F-81DA-4522-B17C-D39F6BAFD188}" name="Sub-Category" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{2726D609-060B-4E14-9FA3-8D516E62ED14}" name="Test Name" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{59D8DB47-2BC5-4715-8454-8DD879E7250B}" name="Description" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{4C10920D-BA51-4415-9DA1-81C94A3A83EE}" name="Pass/Fail/Warning Criteria" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{7634C1FE-6EAD-4A81-9708-EF2CC045EB17}" name="Collected by " dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{739FE647-472E-4A5D-9891-8BBA5C7F2E59}" name="Data Collection Instructions" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{06E5D75F-7411-4EFA-902F-E7339CDED8A3}" name="Link to query" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{974B7D4C-6CB3-4F7C-A8C9-DC06624CB7EE}" name="Pre-Req view" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FCB21128-7E2F-4FB8-9FEF-4BC867D86F82}" name="Table5" displayName="Table5" ref="A1:K3" totalsRowShown="0" headerRowDxfId="55" dataDxfId="53" headerRowBorderDxfId="54" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FCB21128-7E2F-4FB8-9FEF-4BC867D86F82}" name="Table5" displayName="Table5" ref="A1:K3" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
   <autoFilter ref="A1:K3" xr:uid="{FCB21128-7E2F-4FB8-9FEF-4BC867D86F82}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{8899FB88-9BC2-40AE-94F9-C71062C586EC}" name="Status" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{DFE2A64F-7736-4744-9705-01AA56B48AD4}" name="Owner" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{3B62DFCC-7A12-4BC9-BE66-269AC216BC5D}" name="Category" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{518A328F-DF18-402F-8C7B-BC481A708C71}" name="Sub-Category" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{9D6E6A35-5814-4CF9-9810-18EC347DCF06}" name="Test Name" dataDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{EA480C38-9E70-4523-B0FA-706CE9CB21DA}" name="Description" dataDxfId="46"/>
-    <tableColumn id="7" xr3:uid="{069379D4-A3D3-4B94-85D5-AA7CC7A6C5F6}" name="Pass/Fail/Warning Criteria" dataDxfId="45"/>
-    <tableColumn id="8" xr3:uid="{AD1BEDDA-1B47-4871-AD38-2D413130E357}" name="Collected by " dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{47346803-DE49-4A9E-94C2-498F2B520D78}" name="Data Collection Instructions" dataDxfId="43"/>
-    <tableColumn id="10" xr3:uid="{35A74EEE-C206-4216-876F-33D34213ECD5}" name="Link to query" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{10372402-6087-47C0-8AEA-65AEB28AEA22}" name="Pre-Req view" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{8899FB88-9BC2-40AE-94F9-C71062C586EC}" name="Status" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{DFE2A64F-7736-4744-9705-01AA56B48AD4}" name="Owner" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{3B62DFCC-7A12-4BC9-BE66-269AC216BC5D}" name="Category" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{518A328F-DF18-402F-8C7B-BC481A708C71}" name="Sub-Category" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{9D6E6A35-5814-4CF9-9810-18EC347DCF06}" name="Test Name" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{EA480C38-9E70-4523-B0FA-706CE9CB21DA}" name="Description" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{069379D4-A3D3-4B94-85D5-AA7CC7A6C5F6}" name="Pass/Fail/Warning Criteria" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{AD1BEDDA-1B47-4871-AD38-2D413130E357}" name="Collected by " dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{47346803-DE49-4A9E-94C2-498F2B520D78}" name="Data Collection Instructions" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{35A74EEE-C206-4216-876F-33D34213ECD5}" name="Link to query" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{10372402-6087-47C0-8AEA-65AEB28AEA22}" name="Pre-Req view" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DA239345-5E00-44ED-864E-2C2AB65FB85C}" name="Table57" displayName="Table57" ref="A1:K6" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DA239345-5E00-44ED-864E-2C2AB65FB85C}" name="Table57" displayName="Table57" ref="A1:K6" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
   <autoFilter ref="A1:K6" xr:uid="{DA239345-5E00-44ED-864E-2C2AB65FB85C}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{4B1A06D6-71B4-4702-96F8-7675723696DE}" name="Status" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{87973FC8-B713-4E17-9089-DC6D52FF4EC9}" name="Owner" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{F7552A79-A019-477B-87D8-94803EBC6FB7}" name="Category" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{9215DEAD-E6F2-47E5-BC6C-8B0CF0A6321E}" name="Sub-Category" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{C73571C3-8843-4756-B834-57FF3424402C}" name="Test Name" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{13C22D1D-28F3-4314-85AB-E8CA6B4F875E}" name="Description" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{2AA408CE-6C40-4B77-8C7F-205FA82D8EA5}" name="Pass/Fail/Warning Criteria" dataDxfId="30"/>
-    <tableColumn id="8" xr3:uid="{F56418F5-F74E-4FB8-8E0B-7D235BA46AF0}" name="Collected by " dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{97BB4151-CCA0-43E7-B359-EE55D5153301}" name="Data Collection Instructions" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{90426409-5B66-493F-8B69-42791AC717BB}" name="Link to query" dataDxfId="27"/>
-    <tableColumn id="11" xr3:uid="{628FDB5E-397A-48F6-AC1B-EB58569BCCF6}" name="Pre-Req view" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{4B1A06D6-71B4-4702-96F8-7675723696DE}" name="Status" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{87973FC8-B713-4E17-9089-DC6D52FF4EC9}" name="Owner" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{F7552A79-A019-477B-87D8-94803EBC6FB7}" name="Category" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{9215DEAD-E6F2-47E5-BC6C-8B0CF0A6321E}" name="Sub-Category" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{C73571C3-8843-4756-B834-57FF3424402C}" name="Test Name" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{13C22D1D-28F3-4314-85AB-E8CA6B4F875E}" name="Description" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{2AA408CE-6C40-4B77-8C7F-205FA82D8EA5}" name="Pass/Fail/Warning Criteria" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{F56418F5-F74E-4FB8-8E0B-7D235BA46AF0}" name="Collected by " dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{97BB4151-CCA0-43E7-B359-EE55D5153301}" name="Data Collection Instructions" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{90426409-5B66-493F-8B69-42791AC717BB}" name="Link to query" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{628FDB5E-397A-48F6-AC1B-EB58569BCCF6}" name="Pre-Req view" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D3AA1321-ADA8-4F94-AF98-0CCCAB13302E}" name="Table7" displayName="Table7" ref="A1:K41" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D3AA1321-ADA8-4F94-AF98-0CCCAB13302E}" name="Table7" displayName="Table7" ref="A1:K41" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:K41" xr:uid="{D3AA1321-ADA8-4F94-AF98-0CCCAB13302E}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{979BA5CA-7BE8-45E2-BE0B-99F0A2E3A306}" name="Status" dataDxfId="25" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{90202A62-3A32-432D-BD26-5EDEA7D02E46}" name="Owner" dataDxfId="24" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{F6A4A4DE-1796-4B29-A4B4-3F6C7FCF6C23}" name="Category" dataDxfId="23" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{2836B875-1C5F-4399-B220-6B26E78D9B10}" name="Sub-Category" dataDxfId="22" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{7FC20B0B-F850-4809-861D-46B69C411896}" name="Test Name" dataDxfId="21" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{F0C3E037-6A53-427A-9C61-81B661427F7D}" name="Description" dataDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{8C5F4E4C-8333-48B6-98D0-994AA36EB2BE}" name="Pass/Fail/Warning Criteria" dataDxfId="19" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{2D8D4D2B-5A03-4337-9899-62D9CC717163}" name="Collected by " dataDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{8016E2CA-4A1D-415A-8868-FBBE80EA1D45}" name="Data Collection Instructions" dataDxfId="17" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{0049A071-633F-4DBC-B9E4-779FB60FD1EC}" name="Link to query" dataDxfId="16" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{FA6C304F-09C0-40C4-9B80-CCF549161A64}" name="Pre-Req view" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{979BA5CA-7BE8-45E2-BE0B-99F0A2E3A306}" name="Status" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{90202A62-3A32-432D-BD26-5EDEA7D02E46}" name="Owner" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{F6A4A4DE-1796-4B29-A4B4-3F6C7FCF6C23}" name="Category" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{2836B875-1C5F-4399-B220-6B26E78D9B10}" name="Sub-Category" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{7FC20B0B-F850-4809-861D-46B69C411896}" name="Test Name" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{F0C3E037-6A53-427A-9C61-81B661427F7D}" name="Description" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{8C5F4E4C-8333-48B6-98D0-994AA36EB2BE}" name="Pass/Fail/Warning Criteria" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{2D8D4D2B-5A03-4337-9899-62D9CC717163}" name="Collected by " dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{8016E2CA-4A1D-415A-8868-FBBE80EA1D45}" name="Data Collection Instructions" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{0049A071-633F-4DBC-B9E4-779FB60FD1EC}" name="Link to query" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{FA6C304F-09C0-40C4-9B80-CCF549161A64}" name="Pre-Req view" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1418,15 +1421,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.84375" customWidth="1"/>
-    <col min="3" max="3" width="45.23046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.23046875" customWidth="1"/>
+    <col min="2" max="2" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="45.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1440,7 +1443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1462,7 +1465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1484,7 +1487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1495,7 +1498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1506,22 +1509,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1539,27 +1542,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FB388A-8907-42F8-9F51-A2DBE026E81A}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.61328125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20.61328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.3046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.69140625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.9296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.6640625" style="7" customWidth="1"/>
     <col min="6" max="6" width="49" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="49" style="7" customWidth="1"/>
-    <col min="8" max="9" width="61.765625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="70.23046875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="67.15234375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="118.84375" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.23046875" style="8"/>
+    <col min="8" max="9" width="61.73046875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="70.19921875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="67.1328125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="118.86328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.19921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>151</v>
       </c>
@@ -1594,7 +1597,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>171</v>
       </c>
@@ -1614,7 +1617,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>171</v>
       </c>
@@ -1628,7 +1631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="102" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>171</v>
       </c>
@@ -1651,7 +1654,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>171</v>
       </c>
@@ -1665,7 +1668,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>171</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>171</v>
       </c>
@@ -1714,7 +1717,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>171</v>
       </c>
@@ -1738,7 +1741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>171</v>
       </c>
@@ -1761,7 +1764,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>171</v>
       </c>
@@ -1778,7 +1781,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>171</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>171</v>
       </c>
@@ -1812,7 +1815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>171</v>
       </c>
@@ -1829,7 +1832,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>171</v>
       </c>
@@ -1846,7 +1849,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>171</v>
       </c>
@@ -1860,7 +1863,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>171</v>
       </c>
@@ -1877,7 +1880,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>171</v>
       </c>
@@ -1891,7 +1894,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>171</v>
       </c>
@@ -1905,7 +1908,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>171</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>171</v>
       </c>
@@ -1939,7 +1942,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>171</v>
       </c>
@@ -1953,7 +1956,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>171</v>
       </c>
@@ -1967,7 +1970,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>171</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>171</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
         <v>171</v>
       </c>
@@ -2018,7 +2021,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>171</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>171</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
         <v>171</v>
       </c>
@@ -2075,7 +2078,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>171</v>
       </c>
@@ -2095,7 +2098,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" ht="57" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>171</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>171</v>
       </c>
@@ -2129,7 +2132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
         <v>171</v>
       </c>
@@ -2149,7 +2152,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>171</v>
       </c>
@@ -2169,7 +2172,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
         <v>171</v>
       </c>
@@ -2186,7 +2189,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
         <v>171</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
         <v>171</v>
       </c>
@@ -2220,7 +2223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>171</v>
       </c>
@@ -2237,7 +2240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="7" t="s">
         <v>171</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
         <v>171</v>
       </c>
@@ -2265,7 +2268,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
         <v>171</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="7" t="s">
         <v>171</v>
       </c>
@@ -2296,7 +2299,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="7" t="s">
         <v>171</v>
       </c>
@@ -2310,7 +2313,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
         <v>171</v>
       </c>
@@ -2324,7 +2327,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
         <v>171</v>
       </c>
@@ -2338,7 +2341,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
         <v>171</v>
       </c>
@@ -2352,7 +2355,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>171</v>
       </c>
@@ -2366,7 +2369,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="7" t="s">
         <v>171</v>
       </c>
@@ -2380,7 +2383,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
         <v>171</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
         <v>171</v>
       </c>
@@ -2411,7 +2414,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
         <v>171</v>
       </c>
@@ -2425,7 +2428,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
         <v>171</v>
       </c>
@@ -2442,7 +2445,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="7" t="s">
         <v>171</v>
       </c>
@@ -2456,7 +2459,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="7" t="s">
         <v>171</v>
       </c>
@@ -2470,7 +2473,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="7" t="s">
         <v>171</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="7" t="s">
         <v>171</v>
       </c>
@@ -2504,7 +2507,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="7" t="s">
         <v>171</v>
       </c>
@@ -2521,7 +2524,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A57" s="7" t="s">
         <v>171</v>
       </c>
@@ -2538,7 +2541,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="7" t="s">
         <v>171</v>
       </c>
@@ -2552,7 +2555,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
         <v>171</v>
       </c>
@@ -2569,7 +2572,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="7" t="s">
         <v>171</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="7" t="s">
         <v>171</v>
       </c>
@@ -2600,7 +2603,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="7" t="s">
         <v>171</v>
       </c>
@@ -2614,7 +2617,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
         <v>171</v>
       </c>
@@ -2628,7 +2631,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="7" t="s">
         <v>171</v>
       </c>
@@ -2642,7 +2645,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" s="7" t="s">
         <v>171</v>
       </c>
@@ -2676,21 +2679,21 @@
       <selection activeCell="C3" sqref="A2:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="26.23046875" customWidth="1"/>
-    <col min="3" max="3" width="26.23046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3828125" customWidth="1"/>
-    <col min="5" max="5" width="23.69140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.23046875" customWidth="1"/>
-    <col min="7" max="7" width="24.53515625" customWidth="1"/>
-    <col min="8" max="8" width="18.84375" customWidth="1"/>
-    <col min="9" max="9" width="25.4609375" customWidth="1"/>
-    <col min="10" max="10" width="13.4609375" customWidth="1"/>
-    <col min="11" max="11" width="13.84375" customWidth="1"/>
+    <col min="1" max="2" width="26.19921875" customWidth="1"/>
+    <col min="3" max="3" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.3984375" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.19921875" customWidth="1"/>
+    <col min="7" max="7" width="24.53125" customWidth="1"/>
+    <col min="8" max="8" width="18.86328125" customWidth="1"/>
+    <col min="9" max="9" width="25.46484375" customWidth="1"/>
+    <col min="10" max="10" width="13.46484375" customWidth="1"/>
+    <col min="11" max="11" width="13.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>151</v>
       </c>
@@ -2725,7 +2728,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>171</v>
       </c>
@@ -2746,7 +2749,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>171</v>
       </c>
@@ -2767,7 +2770,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
@@ -2790,25 +2793,25 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="A2:K6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.15234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.23046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.07421875" customWidth="1"/>
-    <col min="8" max="8" width="13.765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.3046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.3984375" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>151</v>
       </c>
@@ -2843,7 +2846,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>171</v>
       </c>
@@ -2857,12 +2860,14 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>171</v>
       </c>
@@ -2876,12 +2881,14 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>171</v>
       </c>
@@ -2895,12 +2902,14 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>171</v>
       </c>
@@ -2914,12 +2923,14 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>171</v>
       </c>
@@ -2933,7 +2944,9 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -2955,27 +2968,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9483764-06CE-40A2-B3B7-2A21B8141F60}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.3046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.69140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4609375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.23046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.3828125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="47.765625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="54.23046875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="28.4609375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.3046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.23046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.23046875" style="8"/>
+    <col min="1" max="1" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.46484375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.3984375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="47.73046875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="54.19921875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="28.46484375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.19921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.19921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>151</v>
       </c>
@@ -3010,7 +3023,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>171</v>
       </c>
@@ -3021,7 +3034,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>171</v>
       </c>
@@ -3032,7 +3045,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>171</v>
       </c>
@@ -3043,7 +3056,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>171</v>
       </c>
@@ -3054,7 +3067,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>171</v>
       </c>
@@ -3065,7 +3078,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>171</v>
       </c>
@@ -3076,7 +3089,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>171</v>
       </c>
@@ -3087,7 +3100,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>171</v>
       </c>
@@ -3098,7 +3111,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>171</v>
       </c>
@@ -3109,7 +3122,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>171</v>
       </c>
@@ -3123,7 +3136,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>171</v>
       </c>
@@ -3134,7 +3147,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>171</v>
       </c>
@@ -3145,7 +3158,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>171</v>
       </c>
@@ -3159,7 +3172,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>171</v>
       </c>
@@ -3173,7 +3186,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>171</v>
       </c>
@@ -3187,7 +3200,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>171</v>
       </c>
@@ -3201,7 +3214,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>171</v>
       </c>
@@ -3215,7 +3228,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>171</v>
       </c>
@@ -3229,7 +3242,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>171</v>
       </c>
@@ -3243,7 +3256,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>171</v>
       </c>
@@ -3257,7 +3270,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>171</v>
       </c>
@@ -3271,7 +3284,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>171</v>
       </c>
@@ -3285,7 +3298,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>171</v>
       </c>
@@ -3299,7 +3312,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
         <v>171</v>
       </c>
@@ -3313,7 +3326,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>171</v>
       </c>
@@ -3327,7 +3340,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>171</v>
       </c>
@@ -3341,7 +3354,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
         <v>171</v>
       </c>
@@ -3355,7 +3368,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>171</v>
       </c>
@@ -3369,7 +3382,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>171</v>
       </c>
@@ -3383,7 +3396,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>171</v>
       </c>
@@ -3397,7 +3410,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
         <v>171</v>
       </c>
@@ -3411,7 +3424,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>171</v>
       </c>
@@ -3425,7 +3438,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
         <v>171</v>
       </c>
@@ -3439,7 +3452,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
         <v>171</v>
       </c>
@@ -3453,7 +3466,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
         <v>171</v>
       </c>
@@ -3467,7 +3480,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>171</v>
       </c>
@@ -3481,7 +3494,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="7" t="s">
         <v>171</v>
       </c>
@@ -3495,7 +3508,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
         <v>171</v>
       </c>
@@ -3509,7 +3522,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
         <v>171</v>
       </c>
@@ -3523,7 +3536,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A41" s="7" t="s">
         <v>171</v>
       </c>

--- a/AssessmentList.xlsx
+++ b/AssessmentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/nicksalc_microsoft_com1/Documents/Github/SynapseHealthAssessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{8DA84369-714E-4BE4-8048-692F0F4B6DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8A23A8F-64B4-49FA-8367-F0204A12AF3E}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{8DA84369-714E-4BE4-8048-692F0F4B6DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A9533A6-2C8F-4110-AC4A-AF6D9AC93646}"/>
   <bookViews>
     <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5C4F97EF-D37C-4010-B2B3-1260A2189393}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="206">
   <si>
     <t>Item</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>Portal: Azure Metrics</t>
+  </si>
+  <si>
+    <t>Remediation</t>
   </si>
 </sst>
 </file>
@@ -782,7 +785,19 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="60">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1036,83 +1051,87 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{798E3207-8B2C-47A9-883E-D74382C09352}" name="Table1" displayName="Table1" ref="A1:K65" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
-  <autoFilter ref="A1:K65" xr:uid="{5703D66D-1822-4365-9273-C51F7109314D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:J65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{798E3207-8B2C-47A9-883E-D74382C09352}" name="Table1" displayName="Table1" ref="A1:L65" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+  <autoFilter ref="A1:L65" xr:uid="{5703D66D-1822-4365-9273-C51F7109314D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:K65">
     <sortCondition ref="C1:C65"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="5" xr3:uid="{50BD6E41-76DB-4D3E-B5CA-D6A176F9A73E}" name="Status" dataDxfId="53"/>
-    <tableColumn id="10" xr3:uid="{577D702B-537C-4071-AEE1-257C3E51036A}" name="Owner" dataDxfId="52"/>
-    <tableColumn id="12" xr3:uid="{AFD01177-99B2-4497-9E50-5BC575779994}" name="Category" dataDxfId="51"/>
-    <tableColumn id="1" xr3:uid="{8BACA63F-81DA-4522-B17C-D39F6BAFD188}" name="Sub-Category" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{2726D609-060B-4E14-9FA3-8D516E62ED14}" name="Test Name" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{59D8DB47-2BC5-4715-8454-8DD879E7250B}" name="Description" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{4C10920D-BA51-4415-9DA1-81C94A3A83EE}" name="Pass/Fail/Warning Criteria" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{7634C1FE-6EAD-4A81-9708-EF2CC045EB17}" name="Collected by " dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{739FE647-472E-4A5D-9891-8BBA5C7F2E59}" name="Data Collection Instructions" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{06E5D75F-7411-4EFA-902F-E7339CDED8A3}" name="Link to query" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{974B7D4C-6CB3-4F7C-A8C9-DC06624CB7EE}" name="Pre-Req view" dataDxfId="43"/>
+  <tableColumns count="12">
+    <tableColumn id="5" xr3:uid="{50BD6E41-76DB-4D3E-B5CA-D6A176F9A73E}" name="Status" dataDxfId="57"/>
+    <tableColumn id="10" xr3:uid="{577D702B-537C-4071-AEE1-257C3E51036A}" name="Owner" dataDxfId="56"/>
+    <tableColumn id="12" xr3:uid="{AFD01177-99B2-4497-9E50-5BC575779994}" name="Category" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{8BACA63F-81DA-4522-B17C-D39F6BAFD188}" name="Sub-Category" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{2726D609-060B-4E14-9FA3-8D516E62ED14}" name="Test Name" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{59D8DB47-2BC5-4715-8454-8DD879E7250B}" name="Description" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{4C10920D-BA51-4415-9DA1-81C94A3A83EE}" name="Pass/Fail/Warning Criteria" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{F22651F3-C3E0-4ABB-BD29-5625CEE3E5B9}" name="Remediation" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7634C1FE-6EAD-4A81-9708-EF2CC045EB17}" name="Collected by " dataDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{739FE647-472E-4A5D-9891-8BBA5C7F2E59}" name="Data Collection Instructions" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{06E5D75F-7411-4EFA-902F-E7339CDED8A3}" name="Link to query" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{974B7D4C-6CB3-4F7C-A8C9-DC06624CB7EE}" name="Pre-Req view" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FCB21128-7E2F-4FB8-9FEF-4BC867D86F82}" name="Table5" displayName="Table5" ref="A1:K3" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
-  <autoFilter ref="A1:K3" xr:uid="{FCB21128-7E2F-4FB8-9FEF-4BC867D86F82}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{8899FB88-9BC2-40AE-94F9-C71062C586EC}" name="Status" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{DFE2A64F-7736-4744-9705-01AA56B48AD4}" name="Owner" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{3B62DFCC-7A12-4BC9-BE66-269AC216BC5D}" name="Category" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{518A328F-DF18-402F-8C7B-BC481A708C71}" name="Sub-Category" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{9D6E6A35-5814-4CF9-9810-18EC347DCF06}" name="Test Name" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{EA480C38-9E70-4523-B0FA-706CE9CB21DA}" name="Description" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{069379D4-A3D3-4B94-85D5-AA7CC7A6C5F6}" name="Pass/Fail/Warning Criteria" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{AD1BEDDA-1B47-4871-AD38-2D413130E357}" name="Collected by " dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{47346803-DE49-4A9E-94C2-498F2B520D78}" name="Data Collection Instructions" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{35A74EEE-C206-4216-876F-33D34213ECD5}" name="Link to query" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{10372402-6087-47C0-8AEA-65AEB28AEA22}" name="Pre-Req view" dataDxfId="28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FCB21128-7E2F-4FB8-9FEF-4BC867D86F82}" name="Table5" displayName="Table5" ref="A1:L3" totalsRowShown="0" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43">
+  <autoFilter ref="A1:L3" xr:uid="{FCB21128-7E2F-4FB8-9FEF-4BC867D86F82}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{8899FB88-9BC2-40AE-94F9-C71062C586EC}" name="Status" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{DFE2A64F-7736-4744-9705-01AA56B48AD4}" name="Owner" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{3B62DFCC-7A12-4BC9-BE66-269AC216BC5D}" name="Category" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{518A328F-DF18-402F-8C7B-BC481A708C71}" name="Sub-Category" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{9D6E6A35-5814-4CF9-9810-18EC347DCF06}" name="Test Name" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{EA480C38-9E70-4523-B0FA-706CE9CB21DA}" name="Description" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{069379D4-A3D3-4B94-85D5-AA7CC7A6C5F6}" name="Pass/Fail/Warning Criteria" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{79224BC4-2841-496F-A090-FBB3A5029D04}" name="Remediation" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{AD1BEDDA-1B47-4871-AD38-2D413130E357}" name="Collected by " dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{47346803-DE49-4A9E-94C2-498F2B520D78}" name="Data Collection Instructions" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{35A74EEE-C206-4216-876F-33D34213ECD5}" name="Link to query" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{10372402-6087-47C0-8AEA-65AEB28AEA22}" name="Pre-Req view" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DA239345-5E00-44ED-864E-2C2AB65FB85C}" name="Table57" displayName="Table57" ref="A1:K6" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
-  <autoFilter ref="A1:K6" xr:uid="{DA239345-5E00-44ED-864E-2C2AB65FB85C}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{4B1A06D6-71B4-4702-96F8-7675723696DE}" name="Status" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{87973FC8-B713-4E17-9089-DC6D52FF4EC9}" name="Owner" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{F7552A79-A019-477B-87D8-94803EBC6FB7}" name="Category" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{9215DEAD-E6F2-47E5-BC6C-8B0CF0A6321E}" name="Sub-Category" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{C73571C3-8843-4756-B834-57FF3424402C}" name="Test Name" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{13C22D1D-28F3-4314-85AB-E8CA6B4F875E}" name="Description" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{2AA408CE-6C40-4B77-8C7F-205FA82D8EA5}" name="Pass/Fail/Warning Criteria" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{F56418F5-F74E-4FB8-8E0B-7D235BA46AF0}" name="Collected by " dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{97BB4151-CCA0-43E7-B359-EE55D5153301}" name="Data Collection Instructions" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{90426409-5B66-493F-8B69-42791AC717BB}" name="Link to query" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{628FDB5E-397A-48F6-AC1B-EB58569BCCF6}" name="Pre-Req view" dataDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DA239345-5E00-44ED-864E-2C2AB65FB85C}" name="Table57" displayName="Table57" ref="A1:L6" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28">
+  <autoFilter ref="A1:L6" xr:uid="{DA239345-5E00-44ED-864E-2C2AB65FB85C}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{4B1A06D6-71B4-4702-96F8-7675723696DE}" name="Status" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{87973FC8-B713-4E17-9089-DC6D52FF4EC9}" name="Owner" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{F7552A79-A019-477B-87D8-94803EBC6FB7}" name="Category" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{9215DEAD-E6F2-47E5-BC6C-8B0CF0A6321E}" name="Sub-Category" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{C73571C3-8843-4756-B834-57FF3424402C}" name="Test Name" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{13C22D1D-28F3-4314-85AB-E8CA6B4F875E}" name="Description" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{2AA408CE-6C40-4B77-8C7F-205FA82D8EA5}" name="Pass/Fail/Warning Criteria" dataDxfId="21"/>
+    <tableColumn id="12" xr3:uid="{67D40697-C7B6-4657-B323-A5AAFBA46566}" name="Remediation" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{F56418F5-F74E-4FB8-8E0B-7D235BA46AF0}" name="Collected by " dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{97BB4151-CCA0-43E7-B359-EE55D5153301}" name="Data Collection Instructions" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{90426409-5B66-493F-8B69-42791AC717BB}" name="Link to query" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{628FDB5E-397A-48F6-AC1B-EB58569BCCF6}" name="Pre-Req view" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D3AA1321-ADA8-4F94-AF98-0CCCAB13302E}" name="Table7" displayName="Table7" ref="A1:K41" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:K41" xr:uid="{D3AA1321-ADA8-4F94-AF98-0CCCAB13302E}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{979BA5CA-7BE8-45E2-BE0B-99F0A2E3A306}" name="Status" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{90202A62-3A32-432D-BD26-5EDEA7D02E46}" name="Owner" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{F6A4A4DE-1796-4B29-A4B4-3F6C7FCF6C23}" name="Category" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{2836B875-1C5F-4399-B220-6B26E78D9B10}" name="Sub-Category" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{7FC20B0B-F850-4809-861D-46B69C411896}" name="Test Name" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{F0C3E037-6A53-427A-9C61-81B661427F7D}" name="Description" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{8C5F4E4C-8333-48B6-98D0-994AA36EB2BE}" name="Pass/Fail/Warning Criteria" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="8" xr3:uid="{2D8D4D2B-5A03-4337-9899-62D9CC717163}" name="Collected by " dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{8016E2CA-4A1D-415A-8868-FBBE80EA1D45}" name="Data Collection Instructions" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{0049A071-633F-4DBC-B9E4-779FB60FD1EC}" name="Link to query" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{FA6C304F-09C0-40C4-9B80-CCF549161A64}" name="Pre-Req view" dataDxfId="0" dataCellStyle="Normal"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D3AA1321-ADA8-4F94-AF98-0CCCAB13302E}" name="Table7" displayName="Table7" ref="A1:L41" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:L41" xr:uid="{D3AA1321-ADA8-4F94-AF98-0CCCAB13302E}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{979BA5CA-7BE8-45E2-BE0B-99F0A2E3A306}" name="Status" dataDxfId="14" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{90202A62-3A32-432D-BD26-5EDEA7D02E46}" name="Owner" dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{F6A4A4DE-1796-4B29-A4B4-3F6C7FCF6C23}" name="Category" dataDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{2836B875-1C5F-4399-B220-6B26E78D9B10}" name="Sub-Category" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{7FC20B0B-F850-4809-861D-46B69C411896}" name="Test Name" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{F0C3E037-6A53-427A-9C61-81B661427F7D}" name="Description" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{8C5F4E4C-8333-48B6-98D0-994AA36EB2BE}" name="Pass/Fail/Warning Criteria" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{5787959C-505D-4C4D-A75A-BEEF3371AB17}" name="Remediation" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{2D8D4D2B-5A03-4337-9899-62D9CC717163}" name="Collected by " dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{8016E2CA-4A1D-415A-8868-FBBE80EA1D45}" name="Data Collection Instructions" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{0049A071-633F-4DBC-B9E4-779FB60FD1EC}" name="Link to query" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{FA6C304F-09C0-40C4-9B80-CCF549161A64}" name="Pre-Req view" dataDxfId="4" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1540,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FB388A-8907-42F8-9F51-A2DBE026E81A}">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1554,15 +1573,15 @@
     <col min="4" max="4" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.6640625" style="7" customWidth="1"/>
     <col min="6" max="6" width="49" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49" style="7" customWidth="1"/>
-    <col min="8" max="9" width="61.73046875" style="7" customWidth="1"/>
-    <col min="10" max="10" width="70.19921875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="67.1328125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="118.86328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.19921875" style="8"/>
+    <col min="7" max="8" width="49" style="7" customWidth="1"/>
+    <col min="9" max="10" width="61.73046875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="70.19921875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="67.1328125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="118.86328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.19921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>151</v>
       </c>
@@ -1585,19 +1604,22 @@
         <v>166</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>171</v>
       </c>
@@ -1613,11 +1635,11 @@
       <c r="E2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>171</v>
       </c>
@@ -1631,7 +1653,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>171</v>
       </c>
@@ -1650,11 +1672,11 @@
       <c r="F4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>171</v>
       </c>
@@ -1668,7 +1690,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>171</v>
       </c>
@@ -1687,11 +1709,11 @@
       <c r="F6" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>171</v>
       </c>
@@ -1710,14 +1732,14 @@
       <c r="F7" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>171</v>
       </c>
@@ -1737,11 +1759,12 @@
         <v>36</v>
       </c>
       <c r="G8" s="10"/>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="10"/>
+      <c r="I8" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>171</v>
       </c>
@@ -1754,17 +1777,17 @@
       <c r="E9" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="L9" s="9" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>171</v>
       </c>
@@ -1777,11 +1800,11 @@
       <c r="E10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>171</v>
       </c>
@@ -1794,11 +1817,11 @@
       <c r="E11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>171</v>
       </c>
@@ -1811,11 +1834,11 @@
       <c r="E12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="I12" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>171</v>
       </c>
@@ -1828,11 +1851,11 @@
       <c r="E13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="I13" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>171</v>
       </c>
@@ -1845,11 +1868,11 @@
       <c r="E14" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>171</v>
       </c>
@@ -1863,7 +1886,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>171</v>
       </c>
@@ -1876,11 +1899,11 @@
       <c r="E16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>171</v>
       </c>
@@ -1894,7 +1917,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>171</v>
       </c>
@@ -1908,7 +1931,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>171</v>
       </c>
@@ -1924,11 +1947,11 @@
       <c r="F19" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>171</v>
       </c>
@@ -1942,7 +1965,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>171</v>
       </c>
@@ -1956,7 +1979,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>171</v>
       </c>
@@ -1970,7 +1993,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>171</v>
       </c>
@@ -1981,7 +2004,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>171</v>
       </c>
@@ -1997,11 +2020,11 @@
       <c r="F24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
         <v>171</v>
       </c>
@@ -2017,11 +2040,11 @@
       <c r="F25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>171</v>
       </c>
@@ -2034,11 +2057,11 @@
       <c r="E26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>171</v>
       </c>
@@ -2051,14 +2074,14 @@
       <c r="E27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
         <v>171</v>
       </c>
@@ -2071,14 +2094,14 @@
       <c r="E28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>171</v>
       </c>
@@ -2091,14 +2114,14 @@
       <c r="E29" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="I29" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="57" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>171</v>
       </c>
@@ -2111,11 +2134,11 @@
       <c r="F30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>171</v>
       </c>
@@ -2128,11 +2151,11 @@
       <c r="F31" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
         <v>171</v>
       </c>
@@ -2148,11 +2171,11 @@
       <c r="F32" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="I32" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>171</v>
       </c>
@@ -2168,11 +2191,11 @@
       <c r="F33" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="I33" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
         <v>171</v>
       </c>
@@ -2185,11 +2208,11 @@
       <c r="E34" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
         <v>171</v>
       </c>
@@ -2202,11 +2225,11 @@
       <c r="E35" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
         <v>171</v>
       </c>
@@ -2219,11 +2242,11 @@
       <c r="E36" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="I36" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>171</v>
       </c>
@@ -2236,11 +2259,11 @@
       <c r="E37" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="I37" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="7" t="s">
         <v>171</v>
       </c>
@@ -2254,7 +2277,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
         <v>171</v>
       </c>
@@ -2268,7 +2291,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
         <v>171</v>
       </c>
@@ -2281,11 +2304,11 @@
       <c r="E40" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="7" t="s">
         <v>171</v>
       </c>
@@ -2299,7 +2322,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="7" t="s">
         <v>171</v>
       </c>
@@ -2313,7 +2336,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
         <v>171</v>
       </c>
@@ -2323,11 +2346,11 @@
       <c r="E43" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="I43" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
         <v>171</v>
       </c>
@@ -2337,11 +2360,11 @@
       <c r="E44" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="I44" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
         <v>171</v>
       </c>
@@ -2355,7 +2378,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>171</v>
       </c>
@@ -2369,7 +2392,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="7" t="s">
         <v>171</v>
       </c>
@@ -2383,7 +2406,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
         <v>171</v>
       </c>
@@ -2397,7 +2420,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
         <v>171</v>
       </c>
@@ -2410,11 +2433,11 @@
       <c r="E49" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="I49" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
         <v>171</v>
       </c>
@@ -2428,7 +2451,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
         <v>171</v>
       </c>
@@ -2441,11 +2464,11 @@
       <c r="E51" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="I51" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="7" t="s">
         <v>171</v>
       </c>
@@ -2459,7 +2482,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="7" t="s">
         <v>171</v>
       </c>
@@ -2473,7 +2496,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="7" t="s">
         <v>171</v>
       </c>
@@ -2486,11 +2509,11 @@
       <c r="E54" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="I54" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="7" t="s">
         <v>171</v>
       </c>
@@ -2503,11 +2526,11 @@
       <c r="E55" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="I55" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="7" t="s">
         <v>171</v>
       </c>
@@ -2524,7 +2547,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A57" s="7" t="s">
         <v>171</v>
       </c>
@@ -2541,7 +2564,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="7" t="s">
         <v>171</v>
       </c>
@@ -2555,7 +2578,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
         <v>171</v>
       </c>
@@ -2572,7 +2595,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="7" t="s">
         <v>171</v>
       </c>
@@ -2586,7 +2609,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="7" t="s">
         <v>171</v>
       </c>
@@ -2603,7 +2626,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="7" t="s">
         <v>171</v>
       </c>
@@ -2617,7 +2640,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
         <v>171</v>
       </c>
@@ -2627,11 +2650,11 @@
       <c r="E63" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="I63" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="7" t="s">
         <v>171</v>
       </c>
@@ -2641,7 +2664,7 @@
       <c r="E64" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="I64" s="7" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2658,10 +2681,10 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="K9" r:id="rId1" xr:uid="{8B2E3FCF-FBAA-4D89-A2BD-D0D0F585DA43}"/>
-    <hyperlink ref="J7" r:id="rId2" xr:uid="{114B2659-B33C-4854-87B4-B4D768A329CE}"/>
-    <hyperlink ref="K2" r:id="rId3" xr:uid="{9509FFA4-0C2B-4706-B902-30D3FD56DF94}"/>
-    <hyperlink ref="J9" r:id="rId4" xr:uid="{88FEA10A-7BB4-4841-90E3-AAA6EDA79E90}"/>
+    <hyperlink ref="L9" r:id="rId1" xr:uid="{8B2E3FCF-FBAA-4D89-A2BD-D0D0F585DA43}"/>
+    <hyperlink ref="K7" r:id="rId2" xr:uid="{114B2659-B33C-4854-87B4-B4D768A329CE}"/>
+    <hyperlink ref="L2" r:id="rId3" xr:uid="{9509FFA4-0C2B-4706-B902-30D3FD56DF94}"/>
+    <hyperlink ref="K9" r:id="rId4" xr:uid="{88FEA10A-7BB4-4841-90E3-AAA6EDA79E90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
@@ -2673,10 +2696,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5384E3B-8431-40CC-9C12-60597BFBBB82}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="A2:K3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2686,14 +2709,14 @@
     <col min="4" max="4" width="18.3984375" customWidth="1"/>
     <col min="5" max="5" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.19921875" customWidth="1"/>
-    <col min="7" max="7" width="24.53125" customWidth="1"/>
-    <col min="8" max="8" width="18.86328125" customWidth="1"/>
-    <col min="9" max="9" width="25.46484375" customWidth="1"/>
-    <col min="10" max="10" width="13.46484375" customWidth="1"/>
-    <col min="11" max="11" width="13.86328125" customWidth="1"/>
+    <col min="7" max="8" width="24.53125" customWidth="1"/>
+    <col min="9" max="9" width="18.86328125" customWidth="1"/>
+    <col min="10" max="10" width="25.46484375" customWidth="1"/>
+    <col min="11" max="11" width="13.46484375" customWidth="1"/>
+    <col min="12" max="12" width="13.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>151</v>
       </c>
@@ -2715,20 +2738,23 @@
       <c r="G1" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>171</v>
       </c>
@@ -2742,14 +2768,15 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>171</v>
       </c>
@@ -2763,16 +2790,18 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2790,10 +2819,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88900C96-B1AF-4FF1-A8EC-668A66C27C48}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2804,14 +2833,14 @@
     <col min="4" max="4" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.3984375" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="31.3984375" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>151</v>
       </c>
@@ -2833,20 +2862,23 @@
       <c r="G1" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>171</v>
       </c>
@@ -2860,14 +2892,15 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>171</v>
       </c>
@@ -2881,14 +2914,15 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>171</v>
       </c>
@@ -2902,14 +2936,15 @@
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>171</v>
       </c>
@@ -2923,14 +2958,15 @@
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>171</v>
       </c>
@@ -2944,12 +2980,13 @@
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -2966,10 +3003,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9483764-06CE-40A2-B3B7-2A21B8141F60}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2980,15 +3017,15 @@
     <col min="4" max="4" width="14.19921875" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.3984375" style="7" customWidth="1"/>
     <col min="6" max="6" width="47.73046875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="54.19921875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="28.46484375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.73046875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.19921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.19921875" style="8"/>
+    <col min="7" max="8" width="54.19921875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="28.46484375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.19921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.19921875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>151</v>
       </c>
@@ -3011,19 +3048,22 @@
         <v>166</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>171</v>
       </c>
@@ -3034,7 +3074,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>171</v>
       </c>
@@ -3045,7 +3085,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>171</v>
       </c>
@@ -3056,7 +3096,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>171</v>
       </c>
@@ -3067,7 +3107,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>171</v>
       </c>
@@ -3078,7 +3118,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>171</v>
       </c>
@@ -3089,7 +3129,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
         <v>171</v>
       </c>
@@ -3100,7 +3140,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
         <v>171</v>
       </c>
@@ -3111,7 +3151,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
         <v>171</v>
       </c>
@@ -3122,7 +3162,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
         <v>171</v>
       </c>
@@ -3136,7 +3176,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
         <v>171</v>
       </c>
@@ -3147,7 +3187,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>171</v>
       </c>
@@ -3158,7 +3198,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
         <v>171</v>
       </c>
@@ -3168,11 +3208,11 @@
       <c r="E14" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="I14" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
         <v>171</v>
       </c>
@@ -3182,11 +3222,11 @@
       <c r="E15" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
         <v>171</v>
       </c>
@@ -3196,11 +3236,11 @@
       <c r="E16" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="I16" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>171</v>
       </c>
@@ -3210,11 +3250,11 @@
       <c r="E17" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="I17" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
         <v>171</v>
       </c>
@@ -3224,11 +3264,11 @@
       <c r="E18" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="I18" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
         <v>171</v>
       </c>
@@ -3238,11 +3278,11 @@
       <c r="E19" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>171</v>
       </c>
@@ -3252,11 +3292,11 @@
       <c r="E20" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="I20" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
         <v>171</v>
       </c>
@@ -3266,11 +3306,11 @@
       <c r="E21" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
         <v>171</v>
       </c>
@@ -3280,11 +3320,11 @@
       <c r="E22" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="I22" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
         <v>171</v>
       </c>
@@ -3294,11 +3334,11 @@
       <c r="E23" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="I23" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
         <v>171</v>
       </c>
@@ -3308,11 +3348,11 @@
       <c r="E24" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
         <v>171</v>
       </c>
@@ -3322,11 +3362,11 @@
       <c r="E25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>171</v>
       </c>
@@ -3336,11 +3376,11 @@
       <c r="E26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
         <v>171</v>
       </c>
@@ -3350,11 +3390,11 @@
       <c r="E27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
         <v>171</v>
       </c>
@@ -3364,11 +3404,11 @@
       <c r="E28" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="I28" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
         <v>171</v>
       </c>
@@ -3378,11 +3418,11 @@
       <c r="E29" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="I29" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
         <v>171</v>
       </c>
@@ -3392,11 +3432,11 @@
       <c r="E30" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="I30" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
         <v>171</v>
       </c>
@@ -3406,11 +3446,11 @@
       <c r="E31" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
         <v>171</v>
       </c>
@@ -3420,11 +3460,11 @@
       <c r="E32" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="I32" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>171</v>
       </c>
@@ -3434,11 +3474,11 @@
       <c r="E33" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="I33" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
         <v>171</v>
       </c>
@@ -3448,11 +3488,11 @@
       <c r="E34" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="I34" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
         <v>171</v>
       </c>
@@ -3462,11 +3502,11 @@
       <c r="E35" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="I35" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
         <v>171</v>
       </c>
@@ -3476,11 +3516,11 @@
       <c r="E36" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="I36" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>171</v>
       </c>
@@ -3490,11 +3530,11 @@
       <c r="E37" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="I37" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="7" t="s">
         <v>171</v>
       </c>
@@ -3504,11 +3544,11 @@
       <c r="E38" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="I38" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
         <v>171</v>
       </c>
@@ -3518,11 +3558,11 @@
       <c r="E39" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="I39" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
         <v>171</v>
       </c>
@@ -3532,11 +3572,11 @@
       <c r="E40" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A41" s="7" t="s">
         <v>171</v>
       </c>
@@ -3546,7 +3586,7 @@
       <c r="E41" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="I41" s="7" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3564,6 +3604,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046C9DBCDDFD8DB418F41B2241B54161A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7033472e0bb57c6599fdcbd9f7677219">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="58e001b3-03d5-4b34-abf9-59e2cfe2e3d0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6444ba373961e4493ffb4522bc49aff9" ns2:_="">
     <xsd:import namespace="58e001b3-03d5-4b34-abf9-59e2cfe2e3d0"/>
@@ -3709,22 +3764,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9875775B-611E-456C-9690-799BC8577167}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024609E9-C262-4587-9050-8BFE45D722CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB5C63C8-7919-4159-800E-C7653F629984}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3742,23 +3799,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024609E9-C262-4587-9050-8BFE45D722CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9875775B-611E-456C-9690-799BC8577167}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>

--- a/AssessmentList.xlsx
+++ b/AssessmentList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/nicksalc_microsoft_com1/Documents/Github/SynapseHealthAssessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{8DA84369-714E-4BE4-8048-692F0F4B6DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A9533A6-2C8F-4110-AC4A-AF6D9AC93646}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{8DA84369-714E-4BE4-8048-692F0F4B6DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E471D2A-A60F-46E2-BF8D-07B7795AA796}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5C4F97EF-D37C-4010-B2B3-1260A2189393}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5C4F97EF-D37C-4010-B2B3-1260A2189393}"/>
   </bookViews>
   <sheets>
     <sheet name="Informational" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="214">
   <si>
     <t>Item</t>
   </si>
@@ -160,9 +160,6 @@
     <t>Replicated Tables</t>
   </si>
   <si>
-    <t>Replicated tables frequently rebuilt</t>
-  </si>
-  <si>
     <t>Azure Portal - Pool Diagnostics</t>
   </si>
   <si>
@@ -656,6 +653,37 @@
   </si>
   <si>
     <t>Remediation</t>
+  </si>
+  <si>
+    <t>Replicated tables frequently re-cached</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In an Azure Synapse SQL Pool replicated tables are first created as a round-robin table, which remains the copy of the table that any DML takes place against. The first time this table is queried, the system will start an async operation called a BuildReplicatedTableCache that will cache the table into a replicated table - meaning putting a full copy of the table on the first distribution of each node. If DML is ran against the table, the cached copy is invalidated and the changes are made to the underlying round robin table, and the process starts over. Queries only benefit from replicated tables while the table is in the cached state. 
+This test looks for how often each table gets cached, which indicates how often the cached version of the table is invalidated by DML. </t>
+  </si>
+  <si>
+    <t>Pass: No tables are re-cached more than twice a day
+Warning: At least some tables are re-cached from 3-10 times a day on average
+Fail: At least some tables are re-cached more than 10 times a day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tables with a high number of cache operations should be re-evaluated if they are a good fit for replicated tables. You want to analyze the read to write ratio of the table to see if the cached version of this table is ever actually queried, or if we are just caching and invalidating unnecessarily. </t>
+  </si>
+  <si>
+    <t>Portal: Azure Synapse Workbook or Log Analytics Directly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This information can be found on the "replicated tables" page of the Synapse workbook - or by running a Log Analytics query manually to look how often BuildReplicatedTableCache operations are ran specifying a specific table. </t>
+  </si>
+  <si>
+    <t>nicksalc</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link to workbook template: https://github.com/microsoft/Azure_Synapse_Toolbox/tree/master/AzureWorkbooks
+</t>
   </si>
 </sst>
 </file>
@@ -790,52 +818,85 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -945,6 +1006,9 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -984,42 +1048,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1051,87 +1079,87 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{798E3207-8B2C-47A9-883E-D74382C09352}" name="Table1" displayName="Table1" ref="A1:L65" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{798E3207-8B2C-47A9-883E-D74382C09352}" name="Table1" displayName="Table1" ref="A1:L65" totalsRowShown="0" headerRowDxfId="59" dataDxfId="0">
   <autoFilter ref="A1:L65" xr:uid="{5703D66D-1822-4365-9273-C51F7109314D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:K65">
     <sortCondition ref="C1:C65"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="5" xr3:uid="{50BD6E41-76DB-4D3E-B5CA-D6A176F9A73E}" name="Status" dataDxfId="57"/>
-    <tableColumn id="10" xr3:uid="{577D702B-537C-4071-AEE1-257C3E51036A}" name="Owner" dataDxfId="56"/>
-    <tableColumn id="12" xr3:uid="{AFD01177-99B2-4497-9E50-5BC575779994}" name="Category" dataDxfId="55"/>
-    <tableColumn id="1" xr3:uid="{8BACA63F-81DA-4522-B17C-D39F6BAFD188}" name="Sub-Category" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{2726D609-060B-4E14-9FA3-8D516E62ED14}" name="Test Name" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{59D8DB47-2BC5-4715-8454-8DD879E7250B}" name="Description" dataDxfId="52"/>
-    <tableColumn id="9" xr3:uid="{4C10920D-BA51-4415-9DA1-81C94A3A83EE}" name="Pass/Fail/Warning Criteria" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{F22651F3-C3E0-4ABB-BD29-5625CEE3E5B9}" name="Remediation" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{7634C1FE-6EAD-4A81-9708-EF2CC045EB17}" name="Collected by " dataDxfId="50"/>
-    <tableColumn id="11" xr3:uid="{739FE647-472E-4A5D-9891-8BBA5C7F2E59}" name="Data Collection Instructions" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{06E5D75F-7411-4EFA-902F-E7339CDED8A3}" name="Link to query" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{974B7D4C-6CB3-4F7C-A8C9-DC06624CB7EE}" name="Pre-Req view" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{50BD6E41-76DB-4D3E-B5CA-D6A176F9A73E}" name="Status" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{577D702B-537C-4071-AEE1-257C3E51036A}" name="Owner" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{AFD01177-99B2-4497-9E50-5BC575779994}" name="Category" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{8BACA63F-81DA-4522-B17C-D39F6BAFD188}" name="Sub-Category" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{2726D609-060B-4E14-9FA3-8D516E62ED14}" name="Test Name" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{59D8DB47-2BC5-4715-8454-8DD879E7250B}" name="Description" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{4C10920D-BA51-4415-9DA1-81C94A3A83EE}" name="Pass/Fail/Warning Criteria" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{F22651F3-C3E0-4ABB-BD29-5625CEE3E5B9}" name="Remediation" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{7634C1FE-6EAD-4A81-9708-EF2CC045EB17}" name="Collected by " dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{739FE647-472E-4A5D-9891-8BBA5C7F2E59}" name="Data Collection Instructions" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{06E5D75F-7411-4EFA-902F-E7339CDED8A3}" name="Link to query" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{974B7D4C-6CB3-4F7C-A8C9-DC06624CB7EE}" name="Pre-Req view" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FCB21128-7E2F-4FB8-9FEF-4BC867D86F82}" name="Table5" displayName="Table5" ref="A1:L3" totalsRowShown="0" headerRowDxfId="46" dataDxfId="44" headerRowBorderDxfId="45" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FCB21128-7E2F-4FB8-9FEF-4BC867D86F82}" name="Table5" displayName="Table5" ref="A1:L3" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55">
   <autoFilter ref="A1:L3" xr:uid="{FCB21128-7E2F-4FB8-9FEF-4BC867D86F82}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{8899FB88-9BC2-40AE-94F9-C71062C586EC}" name="Status" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{DFE2A64F-7736-4744-9705-01AA56B48AD4}" name="Owner" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{3B62DFCC-7A12-4BC9-BE66-269AC216BC5D}" name="Category" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{518A328F-DF18-402F-8C7B-BC481A708C71}" name="Sub-Category" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{9D6E6A35-5814-4CF9-9810-18EC347DCF06}" name="Test Name" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{EA480C38-9E70-4523-B0FA-706CE9CB21DA}" name="Description" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{069379D4-A3D3-4B94-85D5-AA7CC7A6C5F6}" name="Pass/Fail/Warning Criteria" dataDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{79224BC4-2841-496F-A090-FBB3A5029D04}" name="Remediation" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{AD1BEDDA-1B47-4871-AD38-2D413130E357}" name="Collected by " dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{47346803-DE49-4A9E-94C2-498F2B520D78}" name="Data Collection Instructions" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{35A74EEE-C206-4216-876F-33D34213ECD5}" name="Link to query" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{10372402-6087-47C0-8AEA-65AEB28AEA22}" name="Pre-Req view" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{8899FB88-9BC2-40AE-94F9-C71062C586EC}" name="Status" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{DFE2A64F-7736-4744-9705-01AA56B48AD4}" name="Owner" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{3B62DFCC-7A12-4BC9-BE66-269AC216BC5D}" name="Category" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{518A328F-DF18-402F-8C7B-BC481A708C71}" name="Sub-Category" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{9D6E6A35-5814-4CF9-9810-18EC347DCF06}" name="Test Name" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{EA480C38-9E70-4523-B0FA-706CE9CB21DA}" name="Description" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{069379D4-A3D3-4B94-85D5-AA7CC7A6C5F6}" name="Pass/Fail/Warning Criteria" dataDxfId="48"/>
+    <tableColumn id="12" xr3:uid="{79224BC4-2841-496F-A090-FBB3A5029D04}" name="Remediation" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{AD1BEDDA-1B47-4871-AD38-2D413130E357}" name="Collected by " dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{47346803-DE49-4A9E-94C2-498F2B520D78}" name="Data Collection Instructions" dataDxfId="45"/>
+    <tableColumn id="10" xr3:uid="{35A74EEE-C206-4216-876F-33D34213ECD5}" name="Link to query" dataDxfId="44"/>
+    <tableColumn id="11" xr3:uid="{10372402-6087-47C0-8AEA-65AEB28AEA22}" name="Pre-Req view" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DA239345-5E00-44ED-864E-2C2AB65FB85C}" name="Table57" displayName="Table57" ref="A1:L6" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DA239345-5E00-44ED-864E-2C2AB65FB85C}" name="Table57" displayName="Table57" ref="A1:L6" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
   <autoFilter ref="A1:L6" xr:uid="{DA239345-5E00-44ED-864E-2C2AB65FB85C}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{4B1A06D6-71B4-4702-96F8-7675723696DE}" name="Status" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{87973FC8-B713-4E17-9089-DC6D52FF4EC9}" name="Owner" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{F7552A79-A019-477B-87D8-94803EBC6FB7}" name="Category" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{9215DEAD-E6F2-47E5-BC6C-8B0CF0A6321E}" name="Sub-Category" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{C73571C3-8843-4756-B834-57FF3424402C}" name="Test Name" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{13C22D1D-28F3-4314-85AB-E8CA6B4F875E}" name="Description" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{2AA408CE-6C40-4B77-8C7F-205FA82D8EA5}" name="Pass/Fail/Warning Criteria" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{67D40697-C7B6-4657-B323-A5AAFBA46566}" name="Remediation" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{F56418F5-F74E-4FB8-8E0B-7D235BA46AF0}" name="Collected by " dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{97BB4151-CCA0-43E7-B359-EE55D5153301}" name="Data Collection Instructions" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{90426409-5B66-493F-8B69-42791AC717BB}" name="Link to query" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{628FDB5E-397A-48F6-AC1B-EB58569BCCF6}" name="Pre-Req view" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{4B1A06D6-71B4-4702-96F8-7675723696DE}" name="Status" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{87973FC8-B713-4E17-9089-DC6D52FF4EC9}" name="Owner" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{F7552A79-A019-477B-87D8-94803EBC6FB7}" name="Category" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{9215DEAD-E6F2-47E5-BC6C-8B0CF0A6321E}" name="Sub-Category" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{C73571C3-8843-4756-B834-57FF3424402C}" name="Test Name" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{13C22D1D-28F3-4314-85AB-E8CA6B4F875E}" name="Description" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{2AA408CE-6C40-4B77-8C7F-205FA82D8EA5}" name="Pass/Fail/Warning Criteria" dataDxfId="32"/>
+    <tableColumn id="12" xr3:uid="{67D40697-C7B6-4657-B323-A5AAFBA46566}" name="Remediation" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{F56418F5-F74E-4FB8-8E0B-7D235BA46AF0}" name="Collected by " dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{97BB4151-CCA0-43E7-B359-EE55D5153301}" name="Data Collection Instructions" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{90426409-5B66-493F-8B69-42791AC717BB}" name="Link to query" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{628FDB5E-397A-48F6-AC1B-EB58569BCCF6}" name="Pre-Req view" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D3AA1321-ADA8-4F94-AF98-0CCCAB13302E}" name="Table7" displayName="Table7" ref="A1:L41" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D3AA1321-ADA8-4F94-AF98-0CCCAB13302E}" name="Table7" displayName="Table7" ref="A1:L41" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:L41" xr:uid="{D3AA1321-ADA8-4F94-AF98-0CCCAB13302E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{979BA5CA-7BE8-45E2-BE0B-99F0A2E3A306}" name="Status" dataDxfId="14" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{90202A62-3A32-432D-BD26-5EDEA7D02E46}" name="Owner" dataDxfId="13" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{F6A4A4DE-1796-4B29-A4B4-3F6C7FCF6C23}" name="Category" dataDxfId="12" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{2836B875-1C5F-4399-B220-6B26E78D9B10}" name="Sub-Category" dataDxfId="11" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{7FC20B0B-F850-4809-861D-46B69C411896}" name="Test Name" dataDxfId="10" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{F0C3E037-6A53-427A-9C61-81B661427F7D}" name="Description" dataDxfId="9" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{8C5F4E4C-8333-48B6-98D0-994AA36EB2BE}" name="Pass/Fail/Warning Criteria" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{5787959C-505D-4C4D-A75A-BEEF3371AB17}" name="Remediation" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{2D8D4D2B-5A03-4337-9899-62D9CC717163}" name="Collected by " dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{8016E2CA-4A1D-415A-8868-FBBE80EA1D45}" name="Data Collection Instructions" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{0049A071-633F-4DBC-B9E4-779FB60FD1EC}" name="Link to query" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{FA6C304F-09C0-40C4-9B80-CCF549161A64}" name="Pre-Req view" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{979BA5CA-7BE8-45E2-BE0B-99F0A2E3A306}" name="Status" dataDxfId="24" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{90202A62-3A32-432D-BD26-5EDEA7D02E46}" name="Owner" dataDxfId="23" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{F6A4A4DE-1796-4B29-A4B4-3F6C7FCF6C23}" name="Category" dataDxfId="22" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{2836B875-1C5F-4399-B220-6B26E78D9B10}" name="Sub-Category" dataDxfId="21" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{7FC20B0B-F850-4809-861D-46B69C411896}" name="Test Name" dataDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{F0C3E037-6A53-427A-9C61-81B661427F7D}" name="Description" dataDxfId="19" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{8C5F4E4C-8333-48B6-98D0-994AA36EB2BE}" name="Pass/Fail/Warning Criteria" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{5787959C-505D-4C4D-A75A-BEEF3371AB17}" name="Remediation" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{2D8D4D2B-5A03-4337-9899-62D9CC717163}" name="Collected by " dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{8016E2CA-4A1D-415A-8868-FBBE80EA1D45}" name="Data Collection Instructions" dataDxfId="15" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{0049A071-633F-4DBC-B9E4-779FB60FD1EC}" name="Link to query" dataDxfId="14" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{FA6C304F-09C0-40C4-9B80-CCF549161A64}" name="Pre-Req view" dataDxfId="13" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1561,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FB388A-8907-42F8-9F51-A2DBE026E81A}">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1572,7 +1600,7 @@
     <col min="3" max="3" width="20.59765625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="49" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="82.06640625" style="7" customWidth="1"/>
     <col min="7" max="8" width="49" style="7" customWidth="1"/>
     <col min="9" max="10" width="61.73046875" style="7" customWidth="1"/>
     <col min="11" max="11" width="70.19921875" style="7" customWidth="1"/>
@@ -1583,10 +1611,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>22</v>
@@ -1595,36 +1623,36 @@
         <v>23</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
@@ -1636,12 +1664,12 @@
         <v>27</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>25</v>
@@ -1653,12 +1681,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
@@ -1678,7 +1706,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>25</v>
@@ -1690,12 +1718,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>25</v>
@@ -1707,7 +1735,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>31</v>
@@ -1715,10 +1743,10 @@
     </row>
     <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>25</v>
@@ -1730,21 +1758,21 @@
         <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>25</v>
@@ -1766,7 +1794,7 @@
     </row>
     <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>25</v>
@@ -1781,15 +1809,18 @@
         <v>31</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
-        <v>171</v>
+        <v>212</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>25</v>
@@ -1798,15 +1829,30 @@
         <v>39</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>40</v>
+        <v>205</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>41</v>
+        <v>209</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>25</v>
@@ -1815,15 +1861,15 @@
         <v>39</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>25</v>
@@ -1832,7 +1878,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>31</v>
@@ -1840,7 +1886,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>25</v>
@@ -1849,213 +1895,213 @@
         <v>39</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="I19" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>6</v>
@@ -2063,93 +2109,93 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="K29" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="F30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="57" x14ac:dyDescent="0.45">
-      <c r="A30" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="7" t="s">
+    <row r="31" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A31" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>6</v>
@@ -2157,90 +2203,90 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="I32" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="I32" s="7" t="s">
+    </row>
+    <row r="33" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A33" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="I33" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="K35" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>31</v>
@@ -2248,16 +2294,16 @@
     </row>
     <row r="37" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>6</v>
@@ -2265,412 +2311,412 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I40" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="E46" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="E47" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A48" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="7" t="s">
+      <c r="F48" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="I49" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="E50" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C51" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="E51" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I51" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="E52" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C53" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="E53" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="E54" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="E55" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="E56" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F56" s="7" t="s">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A57" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A57" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E57" s="7" t="s">
+      <c r="F57" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C58" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="E58" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C59" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="E59" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D61" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="F61" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2718,10 +2764,10 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>22</v>
@@ -2730,47 +2776,47 @@
         <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>166</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2778,21 +2824,21 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2842,10 +2888,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>22</v>
@@ -2854,47 +2900,47 @@
         <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>166</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2902,21 +2948,21 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2924,21 +2970,21 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2946,21 +2992,21 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -2968,21 +3014,21 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -3005,8 +3051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9483764-06CE-40A2-B3B7-2A21B8141F60}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3027,10 +3073,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>22</v>
@@ -3039,555 +3085,555 @@
         <v>23</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="I14" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A41" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I41" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3604,21 +3650,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046C9DBCDDFD8DB418F41B2241B54161A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7033472e0bb57c6599fdcbd9f7677219">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="58e001b3-03d5-4b34-abf9-59e2cfe2e3d0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6444ba373961e4493ffb4522bc49aff9" ns2:_="">
     <xsd:import namespace="58e001b3-03d5-4b34-abf9-59e2cfe2e3d0"/>
@@ -3764,24 +3795,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9875775B-611E-456C-9690-799BC8577167}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024609E9-C262-4587-9050-8BFE45D722CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB5C63C8-7919-4159-800E-C7653F629984}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3799,6 +3828,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024609E9-C262-4587-9050-8BFE45D722CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9875775B-611E-456C-9690-799BC8577167}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>

--- a/AssessmentList.xlsx
+++ b/AssessmentList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/nicksalc_microsoft_com1/Documents/Github/SynapseHealthAssessment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{8DA84369-714E-4BE4-8048-692F0F4B6DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E471D2A-A60F-46E2-BF8D-07B7795AA796}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{8DA84369-714E-4BE4-8048-692F0F4B6DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{290454E4-0971-4284-8DC3-10AEB4A62841}"/>
   <bookViews>
     <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5C4F97EF-D37C-4010-B2B3-1260A2189393}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="219">
   <si>
     <t>Item</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>Azure Portal - Pool Diagnostics</t>
-  </si>
-  <si>
-    <t>Replicated tables long rebuilds</t>
   </si>
   <si>
     <t>Replicated Tables over 2GB</t>
@@ -684,6 +681,27 @@
   <si>
     <t xml:space="preserve">Link to workbook template: https://github.com/microsoft/Azure_Synapse_Toolbox/tree/master/AzureWorkbooks
 </t>
+  </si>
+  <si>
+    <t>Replicated table long cache operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In an Azure Synapse SQL Pool replicated tables are first created as a round-robin table, which remains the copy of the table that any DML takes place against. The first time this table is queried, the system will start an async operation called a BuildReplicatedTableCache that will cache the table into a replicated table - meaning putting a full copy of the table on the first distribution of each node. If DML is ran against the table, the cached copy is invalidated and the changes are made to the underlying round robin table, and the process starts over. Queries only benefit from replicated tables while the table is in the cached state. 
+This test looks for how long it takes to cache a particular replicated table. This operation should generally finish in the seconds to minutes range. </t>
+  </si>
+  <si>
+    <t>Pass: No tables found that took more than 5 minutes to cache
+Warning: At least some tables found that took 5-10 minutes to cache
+Fail: At least some tables found that took more than 10 minutes to cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tables that take a long time to cache should first be evaluated based on size. You can run a DBCC PDW_SHOWSPACEUSED WITH IGNORE_REPLICATED_TABLE_CACHE. This will tell you the size of the table - if it is over 2GB of total data space it may not be a good fit for a replicated table. </t>
+  </si>
+  <si>
+    <t>Portal: Azure Synapse Workbook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This information can be found on the "replicated tables" page of the Synapse workbook - or by running a Log Analytics query manually to look how long BuildReplicatedTableCache operations take for a specific table. </t>
   </si>
 </sst>
 </file>
@@ -857,45 +875,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1048,6 +1027,45 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1079,87 +1097,87 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{798E3207-8B2C-47A9-883E-D74382C09352}" name="Table1" displayName="Table1" ref="A1:L65" totalsRowShown="0" headerRowDxfId="59" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{798E3207-8B2C-47A9-883E-D74382C09352}" name="Table1" displayName="Table1" ref="A1:L65" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A1:L65" xr:uid="{5703D66D-1822-4365-9273-C51F7109314D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:K65">
     <sortCondition ref="C1:C65"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="5" xr3:uid="{50BD6E41-76DB-4D3E-B5CA-D6A176F9A73E}" name="Status" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{577D702B-537C-4071-AEE1-257C3E51036A}" name="Owner" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{AFD01177-99B2-4497-9E50-5BC575779994}" name="Category" dataDxfId="10"/>
-    <tableColumn id="1" xr3:uid="{8BACA63F-81DA-4522-B17C-D39F6BAFD188}" name="Sub-Category" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{2726D609-060B-4E14-9FA3-8D516E62ED14}" name="Test Name" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{59D8DB47-2BC5-4715-8454-8DD879E7250B}" name="Description" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{4C10920D-BA51-4415-9DA1-81C94A3A83EE}" name="Pass/Fail/Warning Criteria" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{F22651F3-C3E0-4ABB-BD29-5625CEE3E5B9}" name="Remediation" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{7634C1FE-6EAD-4A81-9708-EF2CC045EB17}" name="Collected by " dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{739FE647-472E-4A5D-9891-8BBA5C7F2E59}" name="Data Collection Instructions" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{06E5D75F-7411-4EFA-902F-E7339CDED8A3}" name="Link to query" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{974B7D4C-6CB3-4F7C-A8C9-DC06624CB7EE}" name="Pre-Req view" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{50BD6E41-76DB-4D3E-B5CA-D6A176F9A73E}" name="Status" dataDxfId="57"/>
+    <tableColumn id="10" xr3:uid="{577D702B-537C-4071-AEE1-257C3E51036A}" name="Owner" dataDxfId="56"/>
+    <tableColumn id="12" xr3:uid="{AFD01177-99B2-4497-9E50-5BC575779994}" name="Category" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{8BACA63F-81DA-4522-B17C-D39F6BAFD188}" name="Sub-Category" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{2726D609-060B-4E14-9FA3-8D516E62ED14}" name="Test Name" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{59D8DB47-2BC5-4715-8454-8DD879E7250B}" name="Description" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{4C10920D-BA51-4415-9DA1-81C94A3A83EE}" name="Pass/Fail/Warning Criteria" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{F22651F3-C3E0-4ABB-BD29-5625CEE3E5B9}" name="Remediation" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{7634C1FE-6EAD-4A81-9708-EF2CC045EB17}" name="Collected by " dataDxfId="49"/>
+    <tableColumn id="11" xr3:uid="{739FE647-472E-4A5D-9891-8BBA5C7F2E59}" name="Data Collection Instructions" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{06E5D75F-7411-4EFA-902F-E7339CDED8A3}" name="Link to query" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{974B7D4C-6CB3-4F7C-A8C9-DC06624CB7EE}" name="Pre-Req view" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FCB21128-7E2F-4FB8-9FEF-4BC867D86F82}" name="Table5" displayName="Table5" ref="A1:L3" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FCB21128-7E2F-4FB8-9FEF-4BC867D86F82}" name="Table5" displayName="Table5" ref="A1:L3" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
   <autoFilter ref="A1:L3" xr:uid="{FCB21128-7E2F-4FB8-9FEF-4BC867D86F82}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{8899FB88-9BC2-40AE-94F9-C71062C586EC}" name="Status" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{DFE2A64F-7736-4744-9705-01AA56B48AD4}" name="Owner" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{3B62DFCC-7A12-4BC9-BE66-269AC216BC5D}" name="Category" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{518A328F-DF18-402F-8C7B-BC481A708C71}" name="Sub-Category" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{9D6E6A35-5814-4CF9-9810-18EC347DCF06}" name="Test Name" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{EA480C38-9E70-4523-B0FA-706CE9CB21DA}" name="Description" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{069379D4-A3D3-4B94-85D5-AA7CC7A6C5F6}" name="Pass/Fail/Warning Criteria" dataDxfId="48"/>
-    <tableColumn id="12" xr3:uid="{79224BC4-2841-496F-A090-FBB3A5029D04}" name="Remediation" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{AD1BEDDA-1B47-4871-AD38-2D413130E357}" name="Collected by " dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{47346803-DE49-4A9E-94C2-498F2B520D78}" name="Data Collection Instructions" dataDxfId="45"/>
-    <tableColumn id="10" xr3:uid="{35A74EEE-C206-4216-876F-33D34213ECD5}" name="Link to query" dataDxfId="44"/>
-    <tableColumn id="11" xr3:uid="{10372402-6087-47C0-8AEA-65AEB28AEA22}" name="Pre-Req view" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{8899FB88-9BC2-40AE-94F9-C71062C586EC}" name="Status" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{DFE2A64F-7736-4744-9705-01AA56B48AD4}" name="Owner" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{3B62DFCC-7A12-4BC9-BE66-269AC216BC5D}" name="Category" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{518A328F-DF18-402F-8C7B-BC481A708C71}" name="Sub-Category" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{9D6E6A35-5814-4CF9-9810-18EC347DCF06}" name="Test Name" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{EA480C38-9E70-4523-B0FA-706CE9CB21DA}" name="Description" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{069379D4-A3D3-4B94-85D5-AA7CC7A6C5F6}" name="Pass/Fail/Warning Criteria" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{79224BC4-2841-496F-A090-FBB3A5029D04}" name="Remediation" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{AD1BEDDA-1B47-4871-AD38-2D413130E357}" name="Collected by " dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{47346803-DE49-4A9E-94C2-498F2B520D78}" name="Data Collection Instructions" dataDxfId="32"/>
+    <tableColumn id="10" xr3:uid="{35A74EEE-C206-4216-876F-33D34213ECD5}" name="Link to query" dataDxfId="31"/>
+    <tableColumn id="11" xr3:uid="{10372402-6087-47C0-8AEA-65AEB28AEA22}" name="Pre-Req view" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DA239345-5E00-44ED-864E-2C2AB65FB85C}" name="Table57" displayName="Table57" ref="A1:L6" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DA239345-5E00-44ED-864E-2C2AB65FB85C}" name="Table57" displayName="Table57" ref="A1:L6" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
   <autoFilter ref="A1:L6" xr:uid="{DA239345-5E00-44ED-864E-2C2AB65FB85C}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{4B1A06D6-71B4-4702-96F8-7675723696DE}" name="Status" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{87973FC8-B713-4E17-9089-DC6D52FF4EC9}" name="Owner" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{F7552A79-A019-477B-87D8-94803EBC6FB7}" name="Category" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{9215DEAD-E6F2-47E5-BC6C-8B0CF0A6321E}" name="Sub-Category" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{C73571C3-8843-4756-B834-57FF3424402C}" name="Test Name" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{13C22D1D-28F3-4314-85AB-E8CA6B4F875E}" name="Description" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{2AA408CE-6C40-4B77-8C7F-205FA82D8EA5}" name="Pass/Fail/Warning Criteria" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{67D40697-C7B6-4657-B323-A5AAFBA46566}" name="Remediation" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{F56418F5-F74E-4FB8-8E0B-7D235BA46AF0}" name="Collected by " dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{97BB4151-CCA0-43E7-B359-EE55D5153301}" name="Data Collection Instructions" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{90426409-5B66-493F-8B69-42791AC717BB}" name="Link to query" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{628FDB5E-397A-48F6-AC1B-EB58569BCCF6}" name="Pre-Req view" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{4B1A06D6-71B4-4702-96F8-7675723696DE}" name="Status" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{87973FC8-B713-4E17-9089-DC6D52FF4EC9}" name="Owner" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{F7552A79-A019-477B-87D8-94803EBC6FB7}" name="Category" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{9215DEAD-E6F2-47E5-BC6C-8B0CF0A6321E}" name="Sub-Category" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{C73571C3-8843-4756-B834-57FF3424402C}" name="Test Name" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{13C22D1D-28F3-4314-85AB-E8CA6B4F875E}" name="Description" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{2AA408CE-6C40-4B77-8C7F-205FA82D8EA5}" name="Pass/Fail/Warning Criteria" dataDxfId="19"/>
+    <tableColumn id="12" xr3:uid="{67D40697-C7B6-4657-B323-A5AAFBA46566}" name="Remediation" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{F56418F5-F74E-4FB8-8E0B-7D235BA46AF0}" name="Collected by " dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{97BB4151-CCA0-43E7-B359-EE55D5153301}" name="Data Collection Instructions" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{90426409-5B66-493F-8B69-42791AC717BB}" name="Link to query" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{628FDB5E-397A-48F6-AC1B-EB58569BCCF6}" name="Pre-Req view" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D3AA1321-ADA8-4F94-AF98-0CCCAB13302E}" name="Table7" displayName="Table7" ref="A1:L41" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D3AA1321-ADA8-4F94-AF98-0CCCAB13302E}" name="Table7" displayName="Table7" ref="A1:L41" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:L41" xr:uid="{D3AA1321-ADA8-4F94-AF98-0CCCAB13302E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{979BA5CA-7BE8-45E2-BE0B-99F0A2E3A306}" name="Status" dataDxfId="24" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{90202A62-3A32-432D-BD26-5EDEA7D02E46}" name="Owner" dataDxfId="23" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{F6A4A4DE-1796-4B29-A4B4-3F6C7FCF6C23}" name="Category" dataDxfId="22" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{2836B875-1C5F-4399-B220-6B26E78D9B10}" name="Sub-Category" dataDxfId="21" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{7FC20B0B-F850-4809-861D-46B69C411896}" name="Test Name" dataDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="6" xr3:uid="{F0C3E037-6A53-427A-9C61-81B661427F7D}" name="Description" dataDxfId="19" dataCellStyle="Normal"/>
-    <tableColumn id="7" xr3:uid="{8C5F4E4C-8333-48B6-98D0-994AA36EB2BE}" name="Pass/Fail/Warning Criteria" dataDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="12" xr3:uid="{5787959C-505D-4C4D-A75A-BEEF3371AB17}" name="Remediation" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{2D8D4D2B-5A03-4337-9899-62D9CC717163}" name="Collected by " dataDxfId="16" dataCellStyle="Normal"/>
-    <tableColumn id="9" xr3:uid="{8016E2CA-4A1D-415A-8868-FBBE80EA1D45}" name="Data Collection Instructions" dataDxfId="15" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{0049A071-633F-4DBC-B9E4-779FB60FD1EC}" name="Link to query" dataDxfId="14" dataCellStyle="Normal"/>
-    <tableColumn id="11" xr3:uid="{FA6C304F-09C0-40C4-9B80-CCF549161A64}" name="Pre-Req view" dataDxfId="13" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{979BA5CA-7BE8-45E2-BE0B-99F0A2E3A306}" name="Status" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{90202A62-3A32-432D-BD26-5EDEA7D02E46}" name="Owner" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{F6A4A4DE-1796-4B29-A4B4-3F6C7FCF6C23}" name="Category" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{2836B875-1C5F-4399-B220-6B26E78D9B10}" name="Sub-Category" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{7FC20B0B-F850-4809-861D-46B69C411896}" name="Test Name" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{F0C3E037-6A53-427A-9C61-81B661427F7D}" name="Description" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="7" xr3:uid="{8C5F4E4C-8333-48B6-98D0-994AA36EB2BE}" name="Pass/Fail/Warning Criteria" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{5787959C-505D-4C4D-A75A-BEEF3371AB17}" name="Remediation" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{2D8D4D2B-5A03-4337-9899-62D9CC717163}" name="Collected by " dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{8016E2CA-4A1D-415A-8868-FBBE80EA1D45}" name="Data Collection Instructions" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{0049A071-633F-4DBC-B9E4-779FB60FD1EC}" name="Link to query" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{FA6C304F-09C0-40C4-9B80-CCF549161A64}" name="Pre-Req view" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1590,7 +1608,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1611,10 +1629,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>22</v>
@@ -1623,36 +1641,36 @@
         <v>23</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>25</v>
@@ -1664,12 +1682,12 @@
         <v>27</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>25</v>
@@ -1683,10 +1701,10 @@
     </row>
     <row r="4" spans="1:12" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>25</v>
@@ -1706,7 +1724,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>25</v>
@@ -1720,10 +1738,10 @@
     </row>
     <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>25</v>
@@ -1735,7 +1753,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>31</v>
@@ -1743,10 +1761,10 @@
     </row>
     <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>25</v>
@@ -1758,21 +1776,21 @@
         <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>25</v>
@@ -1794,7 +1812,7 @@
     </row>
     <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>25</v>
@@ -1809,18 +1827,18 @@
         <v>31</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>25</v>
@@ -1829,30 +1847,33 @@
         <v>39</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="I10" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>25</v>
@@ -1860,16 +1881,31 @@
       <c r="D11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>41</v>
+      <c r="E11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>40</v>
+        <v>217</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>25</v>
@@ -1878,7 +1914,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>31</v>
@@ -1886,7 +1922,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>25</v>
@@ -1895,7 +1931,7 @@
         <v>39</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>40</v>
@@ -1903,168 +1939,168 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="I19" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>6</v>
@@ -2072,36 +2108,36 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>6</v>
@@ -2109,93 +2145,93 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="K29" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="K30" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>6</v>
@@ -2203,90 +2239,90 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="I32" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="I33" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="K35" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>31</v>
@@ -2294,16 +2330,16 @@
     </row>
     <row r="37" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>6</v>
@@ -2311,412 +2347,412 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D38" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I40" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="E46" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="E47" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="E49" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E49" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="I49" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="E50" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C51" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="E51" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I51" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="E52" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A53" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C53" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="E53" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A54" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="E54" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="E55" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="E56" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C57" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="E57" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C58" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="E58" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C59" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="E59" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D61" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="F61" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A65" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2764,10 +2800,10 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>22</v>
@@ -2776,47 +2812,47 @@
         <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2824,21 +2860,21 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2888,10 +2924,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>22</v>
@@ -2900,47 +2936,47 @@
         <v>23</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2948,21 +2984,21 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2970,21 +3006,21 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2992,21 +3028,21 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -3014,21 +3050,21 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -3073,10 +3109,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>22</v>
@@ -3085,555 +3121,555 @@
         <v>23</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="H1" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="I14" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A41" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="I41" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -3650,6 +3686,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010046C9DBCDDFD8DB418F41B2241B54161A" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7033472e0bb57c6599fdcbd9f7677219">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="58e001b3-03d5-4b34-abf9-59e2cfe2e3d0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6444ba373961e4493ffb4522bc49aff9" ns2:_="">
     <xsd:import namespace="58e001b3-03d5-4b34-abf9-59e2cfe2e3d0"/>
@@ -3795,22 +3846,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9875775B-611E-456C-9690-799BC8577167}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024609E9-C262-4587-9050-8BFE45D722CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB5C63C8-7919-4159-800E-C7653F629984}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3828,23 +3881,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024609E9-C262-4587-9050-8BFE45D722CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9875775B-611E-456C-9690-799BC8577167}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
